--- a/programs/autoencoder/data/result_enc.xlsx
+++ b/programs/autoencoder/data/result_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1153833270072937</v>
+        <v>2.830260038375854</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1900847852230072</v>
+        <v>-0.4968747496604919</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1545317769050598</v>
+        <v>-5.399898529052734</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1052553504705429</v>
+        <v>2.01875638961792</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1687324643135071</v>
+        <v>0.2129254192113876</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1440852284431458</v>
+        <v>-4.087001800537109</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1484524309635162</v>
+        <v>2.798899412155151</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2298953980207443</v>
+        <v>0.03939124941825867</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1660252809524536</v>
+        <v>-5.966450214385986</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.06906018406152725</v>
+        <v>1.445475816726685</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1156686991453171</v>
+        <v>0.821928083896637</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1517860740423203</v>
+        <v>-3.007950305938721</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1122012957930565</v>
+        <v>1.997830510139465</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1700229942798615</v>
+        <v>0.05181132256984711</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1462288647890091</v>
+        <v>-4.414924621582031</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.09669438004493713</v>
+        <v>2.590430736541748</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1448702216148376</v>
+        <v>-0.9232129454612732</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1361036747694016</v>
+        <v>-4.151580810546875</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.1273563951253891</v>
+        <v>3.431331634521484</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2099919319152832</v>
+        <v>-0.8288679718971252</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1518188863992691</v>
+        <v>-6.295332908630371</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1412742435932159</v>
+        <v>5.048435211181641</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1418427228927612</v>
+        <v>-2.563558340072632</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09432423114776611</v>
+        <v>-6.57681941986084</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1411583721637726</v>
+        <v>3.599594116210938</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.225790798664093</v>
+        <v>-0.8674004673957825</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1600126028060913</v>
+        <v>-6.496679306030273</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1435780674219131</v>
+        <v>3.68889331817627</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2225709557533264</v>
+        <v>-1.151272535324097</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1610129624605179</v>
+        <v>-6.335821151733398</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.08688512444496155</v>
+        <v>4.209340572357178</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1230897977948189</v>
+        <v>-2.140486001968384</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1142303049564362</v>
+        <v>-5.432476997375488</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1218995898962021</v>
+        <v>4.185823917388916</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1863474547863007</v>
+        <v>-1.866240501403809</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1342426240444183</v>
+        <v>-6.35698127746582</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1605535894632339</v>
+        <v>3.303670883178711</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2438384741544724</v>
+        <v>-0.584926426410675</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.17652228474617</v>
+        <v>-6.186361789703369</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.1530385613441467</v>
+        <v>3.933093070983887</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2117300629615784</v>
+        <v>-1.366800785064697</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1401632130146027</v>
+        <v>-6.437253475189209</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1297765970230103</v>
+        <v>2.959005355834961</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2112786471843719</v>
+        <v>-0.2898624241352081</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1632989495992661</v>
+        <v>-5.668373584747314</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1066406816244125</v>
+        <v>1.899600148200989</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1616595089435577</v>
+        <v>-0.07237029075622559</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1292645186185837</v>
+        <v>-3.884178876876831</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1388525068759918</v>
+        <v>3.346060276031494</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.209609717130661</v>
+        <v>-1.039616823196411</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1560282409191132</v>
+        <v>-5.682873725891113</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1000022739171982</v>
+        <v>2.676787853240967</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1689870655536652</v>
+        <v>-0.8616445660591125</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1537283211946487</v>
+        <v>-4.730351448059082</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.1097931414842606</v>
+        <v>3.501453638076782</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1632729023694992</v>
+        <v>-1.422235727310181</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1308190077543259</v>
+        <v>-5.30567455291748</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.1247802078723907</v>
+        <v>3.540466070175171</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1992348730564117</v>
+        <v>-1.214929580688477</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1524413824081421</v>
+        <v>-5.928731918334961</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.1216613948345184</v>
+        <v>4.264668941497803</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1917683482170105</v>
+        <v>-1.666537046432495</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1451579630374908</v>
+        <v>-6.62290096282959</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.085628941655159</v>
+        <v>3.676227569580078</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1440558880567551</v>
+        <v>-1.467906713485718</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1295261532068253</v>
+        <v>-5.58212947845459</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.138350248336792</v>
+        <v>2.754455089569092</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.212146207690239</v>
+        <v>0.1207649111747742</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1574983149766922</v>
+        <v>-5.876607418060303</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.150852844119072</v>
+        <v>1.641261577606201</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1818148344755173</v>
+        <v>-0.4496031999588013</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.09815654158592224</v>
+        <v>-3.055644035339355</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.1475858092308044</v>
+        <v>3.243738174438477</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.2314465939998627</v>
+        <v>-0.4946944713592529</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1661002188920975</v>
+        <v>-6.195804595947266</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.160408541560173</v>
+        <v>3.615384578704834</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2477533519268036</v>
+        <v>-0.616055965423584</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.177640974521637</v>
+        <v>-6.752259254455566</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.06855614483356476</v>
+        <v>1.470348238945007</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1228857412934303</v>
+        <v>0.5581150650978088</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1689882874488831</v>
+        <v>-3.088495254516602</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.1541798263788223</v>
+        <v>3.901114702224731</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2289658784866333</v>
+        <v>-1.063356161117554</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.158463791012764</v>
+        <v>-6.789129257202148</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.1033394783735275</v>
+        <v>4.466681957244873</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1600182354450226</v>
+        <v>-2.00989294052124</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1342952847480774</v>
+        <v>-6.502915382385254</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1500740051269531</v>
+        <v>3.246681451797485</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2217925488948822</v>
+        <v>-0.7444373965263367</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1614661812782288</v>
+        <v>-5.881097793579102</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.1059950143098831</v>
+        <v>3.59551477432251</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1659360975027084</v>
+        <v>-1.467316865921021</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1297310590744019</v>
+        <v>-5.79925537109375</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.1209007054567337</v>
+        <v>4.273725509643555</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.187320351600647</v>
+        <v>-1.666377782821655</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1401106268167496</v>
+        <v>-6.542702198028564</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.129675954580307</v>
+        <v>3.488251686096191</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.2084241658449173</v>
+        <v>-1.046994686126709</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1621187329292297</v>
+        <v>-6.089110374450684</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.09730727970600128</v>
+        <v>2.061100244522095</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1635363101959229</v>
+        <v>-1.299495220184326</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1344165951013565</v>
+        <v>-3.349809169769287</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.1366372555494308</v>
+        <v>3.20685887336731</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.2164124101400375</v>
+        <v>-0.7807039022445679</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1651542633771896</v>
+        <v>-5.760847091674805</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.07945378124713898</v>
+        <v>1.782741785049438</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1288069784641266</v>
+        <v>0.3565966784954071</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.144613042473793</v>
+        <v>-3.489398002624512</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.1609772443771362</v>
+        <v>3.63230299949646</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.2490696310997009</v>
+        <v>-0.6348852515220642</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.179445743560791</v>
+        <v>-6.761961460113525</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.09399058669805527</v>
+        <v>2.84337854385376</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.155523806810379</v>
+        <v>-1.277787208557129</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1431909948587418</v>
+        <v>-4.605634689331055</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.1579757034778595</v>
+        <v>3.880881071090698</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.2425363659858704</v>
+        <v>-0.9772985577583313</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1743165105581284</v>
+        <v>-6.840225219726562</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.1284891664981842</v>
+        <v>3.429115533828735</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1410727351903915</v>
+        <v>-3.28366231918335</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1174573972821236</v>
+        <v>-5.956084251403809</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.1199286580085754</v>
+        <v>3.482655048370361</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.2027762234210968</v>
+        <v>-0.8990738987922668</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1565014719963074</v>
+        <v>-6.213698387145996</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.119935616850853</v>
+        <v>3.083242177963257</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.2018354684114456</v>
+        <v>-0.7103621959686279</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1660305708646774</v>
+        <v>-5.778234481811523</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.1456803679466248</v>
+        <v>3.32309889793396</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.2362971007823944</v>
+        <v>-0.5213094353675842</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1717836707830429</v>
+        <v>-6.425748825073242</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.09274351596832275</v>
+        <v>2.124947786331177</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.151103287935257</v>
+        <v>0.3872289955615997</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1435301005840302</v>
+        <v>-4.420533657073975</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1373510956764221</v>
+        <v>4.199117660522461</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.2038162052631378</v>
+        <v>-1.607738018035889</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.140527755022049</v>
+        <v>-6.631618499755859</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.0878913402557373</v>
+        <v>2.366387844085693</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1511023491621017</v>
+        <v>-0.8417574763298035</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1328608989715576</v>
+        <v>-4.01210355758667</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.1488225609064102</v>
+        <v>3.612041473388672</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.2304554879665375</v>
+        <v>-0.8156358599662781</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1663482338190079</v>
+        <v>-6.413558959960938</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.1528613716363907</v>
+        <v>3.258546829223633</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.2421528100967407</v>
+        <v>-0.3437126874923706</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1791759729385376</v>
+        <v>-6.399590015411377</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.1248507797718048</v>
+        <v>4.713735103607178</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.1799895167350769</v>
+        <v>-2.083520412445068</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.1337315291166306</v>
+        <v>-6.741596221923828</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.125771090388298</v>
+        <v>2.838665962219238</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.2063701450824738</v>
+        <v>-0.3528140783309937</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.1681952625513077</v>
+        <v>-5.245471000671387</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.1130369901657104</v>
+        <v>2.129467964172363</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.1669924557209015</v>
+        <v>-0.6317861080169678</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.1376831233501434</v>
+        <v>-3.478890419006348</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.1064243316650391</v>
+        <v>5.870100021362305</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.1213614121079445</v>
+        <v>-2.828971862792969</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.09042546153068542</v>
+        <v>-7.669073581695557</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1103585958480835</v>
+        <v>3.243234634399414</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1824707835912704</v>
+        <v>-0.868634045124054</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.1488764584064484</v>
+        <v>-5.759732246398926</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1332224607467651</v>
+        <v>3.336041450500488</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.2011417746543884</v>
+        <v>-1.225003004074097</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.150541216135025</v>
+        <v>-5.466827869415283</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.1322644650936127</v>
+        <v>1.820456147193909</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.1762553602457047</v>
+        <v>-0.2086794674396515</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.09613841772079468</v>
+        <v>-3.490084171295166</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.05099532753229141</v>
+        <v>3.391358137130737</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.1092552244663239</v>
+        <v>-1.719996929168701</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.1069666296243668</v>
+        <v>-4.713884353637695</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.1231003701686859</v>
+        <v>2.666515350341797</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.1970826089382172</v>
+        <v>-0.5605931878089905</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.1590738743543625</v>
+        <v>-4.857566356658936</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.1424125880002975</v>
+        <v>3.506900787353516</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.2121414542198181</v>
+        <v>-1.129224061965942</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.1514320522546768</v>
+        <v>-5.96229362487793</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.08817414939403534</v>
+        <v>1.028264403343201</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.1201109737157822</v>
+        <v>0.0468473881483078</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.1221651434898376</v>
+        <v>-2.891984462738037</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.1094240918755531</v>
+        <v>2.692382097244263</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.1854820847511292</v>
+        <v>-0.3975138068199158</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.1621430218219757</v>
+        <v>-5.270262718200684</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.09469975531101227</v>
+        <v>5.22171688079834</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.1271931082010269</v>
+        <v>-3.105804920196533</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.1053112000226974</v>
+        <v>-6.356218814849854</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.1481882333755493</v>
+        <v>3.711206436157227</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.2294134795665741</v>
+        <v>-0.9862397313117981</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.1663409769535065</v>
+        <v>-6.512265205383301</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.1010628342628479</v>
+        <v>2.577809810638428</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.1521094292402267</v>
+        <v>-0.8701701760292053</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.1408957540988922</v>
+        <v>-4.251025676727295</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1140002235770226</v>
+        <v>2.758123874664307</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1884695738554001</v>
+        <v>-0.5713009238243103</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.1428110897541046</v>
+        <v>-5.31511116027832</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.1049081683158875</v>
+        <v>1.678335428237915</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.1772584021091461</v>
+        <v>0.6693859100341797</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.1728266626596451</v>
+        <v>-4.291570663452148</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.1526914238929749</v>
+        <v>3.500457763671875</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.2344346642494202</v>
+        <v>-0.8938514590263367</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.1630802750587463</v>
+        <v>-6.249737739562988</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.06071557849645615</v>
+        <v>1.396413326263428</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.1037972345948219</v>
+        <v>0.8552036285400391</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.1428349316120148</v>
+        <v>-2.705386638641357</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.09614898264408112</v>
+        <v>2.127377510070801</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.1541064977645874</v>
+        <v>0.3353859484195709</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.1452613770961761</v>
+        <v>-4.687935352325439</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.04441091790795326</v>
+        <v>6.262152194976807</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.0430530346930027</v>
+        <v>-4.013533115386963</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.06270699948072433</v>
+        <v>-7.252462387084961</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.1457636654376984</v>
+        <v>3.410882949829102</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.2325398474931717</v>
+        <v>-0.6934992671012878</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.173874169588089</v>
+        <v>-6.393787860870361</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.1152338683605194</v>
+        <v>3.344837188720703</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.1894070655107498</v>
+        <v>-1.347403764724731</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.1456891447305679</v>
+        <v>-5.436375141143799</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.1220046505331993</v>
+        <v>4.302713871002197</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.1570484638214111</v>
+        <v>-2.119442462921143</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.1146942526102066</v>
+        <v>-5.920871734619141</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.0752311572432518</v>
+        <v>6.209015846252441</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.08249828219413757</v>
+        <v>-3.462961196899414</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.07517602294683456</v>
+        <v>-7.137332916259766</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.141316756606102</v>
+        <v>2.840378761291504</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.2136033028364182</v>
+        <v>-0.3953888416290283</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.1525107771158218</v>
+        <v>-5.449705600738525</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.1218301057815552</v>
+        <v>3.980782747268677</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.1721949577331543</v>
+        <v>-2.172948360443115</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.1177403777837753</v>
+        <v>-5.820253372192383</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.0891294926404953</v>
+        <v>4.466432094573975</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.1327316164970398</v>
+        <v>-2.62712025642395</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.1021193265914917</v>
+        <v>-5.634986400604248</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.1313164830207825</v>
+        <v>2.918197393417358</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.1991710066795349</v>
+        <v>-0.7773494124412537</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.1580380797386169</v>
+        <v>-5.17741584777832</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.1390632390975952</v>
+        <v>3.518617630004883</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.2028057724237442</v>
+        <v>-1.130843877792358</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.1451480090618134</v>
+        <v>-5.90455150604248</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.1537773460149765</v>
+        <v>3.462883472442627</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.2242415398359299</v>
+        <v>-0.7809963822364807</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.1505932807922363</v>
+        <v>-6.274405002593994</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.1089349687099457</v>
+        <v>2.232101440429688</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.1770911663770676</v>
+        <v>0.3067196011543274</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.1462019085884094</v>
+        <v>-4.434007167816162</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.1045013219118118</v>
+        <v>3.049273014068604</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.1739958673715591</v>
+        <v>-1.017944812774658</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.1524504274129868</v>
+        <v>-5.012838363647461</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.086464524269104</v>
+        <v>3.894274711608887</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.1305690258741379</v>
+        <v>-2.030300855636597</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.1044648140668869</v>
+        <v>-5.345715522766113</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.1041876673698425</v>
+        <v>3.335020542144775</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1480638086795807</v>
+        <v>-1.56624174118042</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.1144729554653168</v>
+        <v>-4.82811164855957</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.04352512583136559</v>
+        <v>0.1446159482002258</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.06259297579526901</v>
+        <v>0.0115087628364563</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.1047595366835594</v>
+        <v>-1.56986939907074</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.08670086413621902</v>
+        <v>1.657004594802856</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.1345747113227844</v>
+        <v>0.5926560759544373</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.1345793306827545</v>
+        <v>-3.923561334609985</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.1134306639432907</v>
+        <v>4.930250644683838</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.166019007563591</v>
+        <v>-2.314951658248901</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.1346696466207504</v>
+        <v>-6.871488571166992</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.1493396013975143</v>
+        <v>2.575362920761108</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.1964775919914246</v>
+        <v>-0.1579042673110962</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.1377613246440887</v>
+        <v>-4.759159564971924</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.1345972716808319</v>
+        <v>2.777862071990967</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.1895573884248734</v>
+        <v>-0.4509311318397522</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.1410283595323563</v>
+        <v>-4.866559028625488</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.1402554363012314</v>
+        <v>3.174134492874146</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.2206538617610931</v>
+        <v>-0.4058391451835632</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.1561903804540634</v>
+        <v>-6.024981498718262</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.09937435388565063</v>
+        <v>2.89353084564209</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.162786453962326</v>
+        <v>-0.7508617043495178</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.1417333334684372</v>
+        <v>-4.962826251983643</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.09512273222208023</v>
+        <v>2.440945148468018</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.1499767154455185</v>
+        <v>-0.6635421514511108</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.1333864331245422</v>
+        <v>-4.607739925384521</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.1130084693431854</v>
+        <v>2.077447652816772</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.1672123372554779</v>
+        <v>-0.4151787757873535</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.1347786486148834</v>
+        <v>-4.161045551300049</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.1110221743583679</v>
+        <v>2.097330808639526</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.1707377731800079</v>
+        <v>0.008275255560874939</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.1503175795078278</v>
+        <v>-4.197679996490479</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.1126904264092445</v>
+        <v>2.213526725769043</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.1812002062797546</v>
+        <v>0.3132618069648743</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.1506099104881287</v>
+        <v>-4.560871124267578</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.08994589000940323</v>
+        <v>2.618420362472534</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.1442028433084488</v>
+        <v>-0.3396808505058289</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.1194358319044113</v>
+        <v>-4.987044811248779</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.04332652315497398</v>
+        <v>0.7199782729148865</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.083050437271595</v>
+        <v>0.3631024956703186</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.1465989053249359</v>
+        <v>-1.845304369926453</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.1493646800518036</v>
+        <v>4.585239887237549</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.1962599158287048</v>
+        <v>-1.857268333435059</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.1298033893108368</v>
+        <v>-6.829888343811035</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.0999377965927124</v>
+        <v>1.924685120582581</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.1519138216972351</v>
+        <v>0.02278390526771545</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.12958724796772</v>
+        <v>-3.822202205657959</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.1618225127458572</v>
+        <v>3.744650363922119</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.2479586452245712</v>
+        <v>-0.8279498219490051</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.1781194508075714</v>
+        <v>-6.759341239929199</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.1176382601261139</v>
+        <v>2.999959468841553</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.19464972615242</v>
+        <v>-0.6589505076408386</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.1498049050569534</v>
+        <v>-5.571138381958008</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.1477022767066956</v>
+        <v>3.392589092254639</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.2220323234796524</v>
+        <v>-0.9616201519966125</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.1662043631076813</v>
+        <v>-5.83419132232666</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.1065731346607208</v>
+        <v>2.934208869934082</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.1768145263195038</v>
+        <v>-0.6708895564079285</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.1489823460578918</v>
+        <v>-5.44902515411377</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.1029152572154999</v>
+        <v>2.179214477539062</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.1582048237323761</v>
+        <v>-0.763105034828186</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.1232065334916115</v>
+        <v>-3.639796257019043</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.08577975630760193</v>
+        <v>2.288604021072388</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.1451716870069504</v>
+        <v>-0.819484531879425</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.1200882345438004</v>
+        <v>-3.947152614593506</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.1137958243489265</v>
+        <v>2.579332590103149</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.1691462844610214</v>
+        <v>-1.670237302780151</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.130451500415802</v>
+        <v>-3.588422298431396</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.1454083621501923</v>
+        <v>3.234504699707031</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.2163255512714386</v>
+        <v>-0.8384378552436829</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.1614482849836349</v>
+        <v>-5.670157909393311</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.09314920753240585</v>
+        <v>1.852798104286194</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.1501028835773468</v>
+        <v>0.1485857665538788</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.1330930292606354</v>
+        <v>-3.712605953216553</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.1576450318098068</v>
+        <v>3.343586683273315</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.2457659989595413</v>
+        <v>-0.3835013508796692</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.1758276224136353</v>
+        <v>-6.550705432891846</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.09841613471508026</v>
+        <v>2.384635448455811</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.1621810495853424</v>
+        <v>-0.8934014439582825</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1333200335502625</v>
+        <v>-4.133396148681641</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.08796130120754242</v>
+        <v>1.416610956192017</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.1353649497032166</v>
+        <v>0.7715162038803101</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.1451290845870972</v>
+        <v>-2.646792888641357</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.1377362757921219</v>
+        <v>3.665735006332397</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.2042834162712097</v>
+        <v>-1.114855051040649</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.1441904306411743</v>
+        <v>-6.215594291687012</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.1215681731700897</v>
+        <v>3.803928852081299</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.1937402039766312</v>
+        <v>-1.432578563690186</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.1431907117366791</v>
+        <v>-6.138979434967041</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.1428736448287964</v>
+        <v>3.654944658279419</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.211999922990799</v>
+        <v>-1.119239091873169</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.1508993953466415</v>
+        <v>-6.199215888977051</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.1131960153579712</v>
+        <v>2.837495803833008</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.1740264743566513</v>
+        <v>-0.9623568654060364</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.1506143361330032</v>
+        <v>-4.760699272155762</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.07556575536727905</v>
+        <v>1.474516749382019</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.1279301047325134</v>
+        <v>0.8784906268119812</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.1667813956737518</v>
+        <v>-3.119666814804077</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.08261693269014359</v>
+        <v>3.786377429962158</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.1399245113134384</v>
+        <v>-1.739562749862671</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.1300555169582367</v>
+        <v>-5.755347728729248</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.07427425682544708</v>
+        <v>0.3647676706314087</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.1073977649211884</v>
+        <v>-0.2302188873291016</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.1305842995643616</v>
+        <v>-0.8784031271934509</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.1039117276668549</v>
+        <v>4.938482284545898</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.160073846578598</v>
+        <v>-2.203052997589111</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.1327386051416397</v>
+        <v>-6.992581367492676</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.08258585631847382</v>
+        <v>3.676575183868408</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.1425685733556747</v>
+        <v>-1.86683464050293</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.1156519204378128</v>
+        <v>-5.222876071929932</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.09898967295885086</v>
+        <v>2.556814908981323</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.1678165942430496</v>
+        <v>-0.2418613731861115</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.1510134935379028</v>
+        <v>-4.87328052520752</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.0893981009721756</v>
+        <v>1.84323525428772</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.1503366827964783</v>
+        <v>0.6111409068107605</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.1604610830545425</v>
+        <v>-4.381855964660645</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.08969281613826752</v>
+        <v>2.563880443572998</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.1598870754241943</v>
+        <v>-0.674086332321167</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.153263121843338</v>
+        <v>-4.218399047851562</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.1351950168609619</v>
+        <v>3.009082555770874</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.2200910300016403</v>
+        <v>-0.3636203408241272</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.1655839830636978</v>
+        <v>-5.820209503173828</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.1220531463623047</v>
+        <v>3.292819499969482</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.1862985193729401</v>
+        <v>-1.072313547134399</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.1508467793464661</v>
+        <v>-5.245579719543457</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.1215756013989449</v>
+        <v>2.622990131378174</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.1927669197320938</v>
+        <v>-0.6930140852928162</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.1529946774244308</v>
+        <v>-4.745875358581543</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.1178432777523994</v>
+        <v>3.884046316146851</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.1665134429931641</v>
+        <v>-2.102735757827759</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.1156618893146515</v>
+        <v>-5.523617744445801</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.1166161373257637</v>
+        <v>2.675841808319092</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.1833133399486542</v>
+        <v>-0.3379935622215271</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.1395623981952667</v>
+        <v>-5.151937484741211</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.1353572905063629</v>
+        <v>3.015335083007812</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.2173619419336319</v>
+        <v>-0.428426206111908</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.1683890223503113</v>
+        <v>-5.589197635650635</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.1108710989356041</v>
+        <v>2.201593399047852</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.1770157516002655</v>
+        <v>-0.5989781022071838</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.1403726041316986</v>
+        <v>-4.109817028045654</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.09453296661376953</v>
+        <v>4.584607124328613</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.1380161643028259</v>
+        <v>-2.407263517379761</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.1179517805576324</v>
+        <v>-6.098872184753418</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.1224938035011292</v>
+        <v>2.571876049041748</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.1976871192455292</v>
+        <v>-0.1538428962230682</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.1568577736616135</v>
+        <v>-5.005417823791504</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.1260467767715454</v>
+        <v>4.33751916885376</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.1964851170778275</v>
+        <v>-1.725477933883667</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.1419643759727478</v>
+        <v>-6.722334861755371</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.1037924885749817</v>
+        <v>1.817483901977539</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.1524064242839813</v>
+        <v>0.07631315290927887</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.1174698024988174</v>
+        <v>-3.129707813262939</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.1543652564287186</v>
+        <v>3.430195808410645</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.2385584712028503</v>
+        <v>-0.6486169695854187</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.1725595146417618</v>
+        <v>-6.269272804260254</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.1080975085496902</v>
+        <v>4.313194751739502</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.171917200088501</v>
+        <v>-1.846648454666138</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.1384070813655853</v>
+        <v>-6.353163719177246</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.09079764783382416</v>
+        <v>2.751195907592773</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.1558907777070999</v>
+        <v>-1.170413732528687</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.1417714953422546</v>
+        <v>-4.292645931243896</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.1327435970306396</v>
+        <v>3.006806135177612</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.219497874379158</v>
+        <v>-0.1634954810142517</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1715830862522125</v>
+        <v>-5.993256092071533</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.1036444753408432</v>
+        <v>4.195113658905029</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.1462902128696442</v>
+        <v>-2.125431537628174</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.1217523813247681</v>
+        <v>-5.922573089599609</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.1364482641220093</v>
+        <v>3.958798170089722</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.187435582280159</v>
+        <v>-1.804210901260376</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.1288344115018845</v>
+        <v>-5.90395450592041</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.1053238809108734</v>
+        <v>2.30060601234436</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.1626596450805664</v>
+        <v>0.1418700516223907</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.1359477937221527</v>
+        <v>-4.56533145904541</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.1223508566617966</v>
+        <v>3.033694744110107</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.2054692208766937</v>
+        <v>-0.4128422141075134</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.1650228500366211</v>
+        <v>-5.779091835021973</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.07416841387748718</v>
+        <v>5.325933456420898</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.1049220338463783</v>
+        <v>-2.862886905670166</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.1160524785518646</v>
+        <v>-6.876800537109375</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.1185626238584518</v>
+        <v>2.83109712600708</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.1842334121465683</v>
+        <v>-1.180503129959106</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.145452693104744</v>
+        <v>-4.602173805236816</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.1310570538043976</v>
+        <v>3.541072845458984</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.2125434577465057</v>
+        <v>-1.06755256652832</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.164104551076889</v>
+        <v>-6.210651397705078</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.1563993841409683</v>
+        <v>3.812294483184814</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.2265647649765015</v>
+        <v>-1.129271030426025</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.155327245593071</v>
+        <v>-6.519073963165283</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.1403163075447083</v>
+        <v>4.810359477996826</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.1852957308292389</v>
+        <v>-2.198609113693237</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1316061317920685</v>
+        <v>-6.7349853515625</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.1231606230139732</v>
+        <v>2.788402557373047</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.1948382705450058</v>
+        <v>-0.9652784466743469</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.1655992120504379</v>
+        <v>-4.694939613342285</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.1475798785686493</v>
+        <v>3.770538091659546</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.227924183011055</v>
+        <v>-1.250267505645752</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.1552776694297791</v>
+        <v>-6.423775672912598</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.04542189091444016</v>
+        <v>1.220474123954773</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.08156527578830719</v>
+        <v>0.7738540172576904</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.1288826167583466</v>
+        <v>-2.379603385925293</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.1046687364578247</v>
+        <v>0.4778043329715729</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.122784286737442</v>
+        <v>0.007538378238677979</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.1115704029798508</v>
+        <v>-2.023407697677612</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.1486933678388596</v>
+        <v>4.833211898803711</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.1907178163528442</v>
+        <v>-2.094087362289429</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.1279783844947815</v>
+        <v>-6.944716453552246</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.1378879100084305</v>
+        <v>2.683021068572998</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.2069362252950668</v>
+        <v>-0.5530572533607483</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.1576297581195831</v>
+        <v>-4.911054611206055</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.08058235049247742</v>
+        <v>2.635905265808105</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.1320536583662033</v>
+        <v>-1.427024364471436</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.1238622292876244</v>
+        <v>-3.735323905944824</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.1148805022239685</v>
+        <v>3.355764865875244</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.1824112087488174</v>
+        <v>-1.351983308792114</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.1473932862281799</v>
+        <v>-5.545791625976562</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.1196057498455048</v>
+        <v>2.5549635887146</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.1856114864349365</v>
+        <v>-0.6347940564155579</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.1458212435245514</v>
+        <v>-4.712838172912598</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.1335462778806686</v>
+        <v>3.059377670288086</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.2017119526863098</v>
+        <v>-0.8232086300849915</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.1543698459863663</v>
+        <v>-5.418953418731689</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.08202414214611053</v>
+        <v>2.447944641113281</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.1396311372518539</v>
+        <v>-0.9899116158485413</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.1250652670860291</v>
+        <v>-3.974812030792236</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.1556369960308075</v>
+        <v>2.953018665313721</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.236762672662735</v>
+        <v>-0.4134010076522827</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.1654672622680664</v>
+        <v>-5.717554092407227</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.09959204494953156</v>
+        <v>2.894964694976807</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.1742043197154999</v>
+        <v>-0.6690017580986023</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.1405736207962036</v>
+        <v>-5.392772674560547</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.07546129822731018</v>
+        <v>1.499095797538757</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.1171299666166306</v>
+        <v>0.949834942817688</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.1403581947088242</v>
+        <v>-2.362932682037354</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.129853218793869</v>
+        <v>2.669636726379395</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.209202378988266</v>
+        <v>-0.2219510674476624</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.1566859632730484</v>
+        <v>-5.340167045593262</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.09889538586139679</v>
+        <v>2.778877258300781</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.1640818417072296</v>
+        <v>-1.231173038482666</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.1445124000310898</v>
+        <v>-4.274642944335938</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.1662774682044983</v>
+        <v>3.88538932800293</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.2535282373428345</v>
+        <v>-0.8549736142158508</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.1794063150882721</v>
+        <v>-6.970768928527832</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.1621684432029724</v>
+        <v>3.105833530426025</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.2132696360349655</v>
+        <v>-0.5461840033531189</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.1432186961174011</v>
+        <v>-5.586068153381348</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.1166902333498001</v>
+        <v>4.138731002807617</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.1814310103654861</v>
+        <v>-1.683288812637329</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.1410713046789169</v>
+        <v>-6.370486259460449</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.08968035131692886</v>
+        <v>1.798668503761292</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.1573180258274078</v>
+        <v>0.3361909985542297</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.1576321721076965</v>
+        <v>-3.89273738861084</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.1184086203575134</v>
+        <v>4.217617511749268</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.1739334017038345</v>
+        <v>-1.719542026519775</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.131626695394516</v>
+        <v>-6.353825569152832</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.1460035592317581</v>
+        <v>3.639439344406128</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.2248096615076065</v>
+        <v>-1.244512796401978</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.152555912733078</v>
+        <v>-6.269024848937988</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.1228117644786835</v>
+        <v>3.912240505218506</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.1601952910423279</v>
+        <v>-2.360300064086914</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.1090079545974731</v>
+        <v>-5.299827575683594</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.1876949071884155</v>
+        <v>1.271386981010437</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.2010052502155304</v>
+        <v>-0.4764358997344971</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1222369968891144</v>
+        <v>-2.179989814758301</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.1246403902769089</v>
+        <v>4.740163326263428</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.1406060606241226</v>
+        <v>-2.839213132858276</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.113351508975029</v>
+        <v>-6.226661682128906</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.1200923025608063</v>
+        <v>2.799882411956787</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.184662938117981</v>
+        <v>-0.6043530106544495</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.15070840716362</v>
+        <v>-4.747888565063477</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.1381261795759201</v>
+        <v>4.285624504089355</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.1738393604755402</v>
+        <v>-1.718533039093018</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.1237511783838272</v>
+        <v>-6.405454635620117</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.1411705911159515</v>
+        <v>3.388644695281982</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.2229173481464386</v>
+        <v>-0.6954765915870667</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.1604430377483368</v>
+        <v>-6.174300670623779</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.1165129095315933</v>
+        <v>3.67728853225708</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.1923731565475464</v>
+        <v>-1.405288934707642</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.1443583369255066</v>
+        <v>-5.939332485198975</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.0553169958293438</v>
+        <v>1.250494599342346</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.1103227213025093</v>
+        <v>0.4083653092384338</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.1379149258136749</v>
+        <v>-2.833845138549805</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.1172895655035973</v>
+        <v>2.664044857025146</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.186782032251358</v>
+        <v>-0.8552884459495544</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.1550585776567459</v>
+        <v>-4.657627105712891</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.1275323927402496</v>
+        <v>5.141736030578613</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.1460266709327698</v>
+        <v>-2.548327922821045</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.09730129688978195</v>
+        <v>-6.527103900909424</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.04755304753780365</v>
+        <v>1.661110281944275</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.1081156581640244</v>
+        <v>-0.09959337115287781</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.1347537487745285</v>
+        <v>-3.189404010772705</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.1337869912385941</v>
+        <v>3.364576101303101</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.2048524022102356</v>
+        <v>-1.104457855224609</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.1535965949296951</v>
+        <v>-5.623473167419434</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.1016968190670013</v>
+        <v>3.906245708465576</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.1579911559820175</v>
+        <v>-1.976598262786865</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.1175555437803268</v>
+        <v>-5.636654853820801</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.08990504592657089</v>
+        <v>2.344460964202881</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.151168093085289</v>
+        <v>-0.8459052443504333</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.1269471943378448</v>
+        <v>-4.023428916931152</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.1063737571239471</v>
+        <v>4.849447727203369</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.1658049374818802</v>
+        <v>-2.172336101531982</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.1352111101150513</v>
+        <v>-6.985420703887939</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.1240665018558502</v>
+        <v>4.003941059112549</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.187946155667305</v>
+        <v>-1.715018033981323</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.1399893462657928</v>
+        <v>-6.231778144836426</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.1464209705591202</v>
+        <v>3.140654325485229</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.2315879464149475</v>
+        <v>-0.4387171864509583</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.1685195863246918</v>
+        <v>-6.05145263671875</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.1644833385944366</v>
+        <v>3.803282737731934</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.2517490386962891</v>
+        <v>-0.8020734190940857</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.1800672709941864</v>
+        <v>-6.88657808303833</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.1505010426044464</v>
+        <v>3.750060558319092</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.2352883517742157</v>
+        <v>-0.9557313323020935</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.168035477399826</v>
+        <v>-6.655947685241699</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.1492725759744644</v>
+        <v>3.67321252822876</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.2339922040700912</v>
+        <v>-0.9454818367958069</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.1646466255187988</v>
+        <v>-6.539440155029297</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.1191828846931458</v>
+        <v>3.047217607498169</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.1741084605455399</v>
+        <v>-1.422898530960083</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.1422131359577179</v>
+        <v>-4.767468452453613</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.1244219988584518</v>
+        <v>2.300206661224365</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.194634884595871</v>
+        <v>-0.1276119351387024</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.16120445728302</v>
+        <v>-4.71101713180542</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.1180452033877373</v>
+        <v>3.760746002197266</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.1891993433237076</v>
+        <v>-1.50020170211792</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.1417620629072189</v>
+        <v>-6.076919078826904</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.1637781113386154</v>
+        <v>3.729023694992065</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.2423845827579498</v>
+        <v>-1.091427326202393</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.1615221798419952</v>
+        <v>-6.545615196228027</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.1064089685678482</v>
+        <v>2.282917737960815</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.152798980474472</v>
+        <v>0.2300365269184113</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.1288653463125229</v>
+        <v>-4.651439666748047</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.1268159449100494</v>
+        <v>3.967800617218018</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.2013961970806122</v>
+        <v>-1.388155221939087</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.158594936132431</v>
+        <v>-6.511587142944336</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.1204356476664543</v>
+        <v>3.377866983413696</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.1946022361516953</v>
+        <v>-0.8906882405281067</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.1500648856163025</v>
+        <v>-6.112858295440674</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.06459201872348785</v>
+        <v>1.122108578681946</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.1167091876268387</v>
+        <v>0.4512929320335388</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.1311469078063965</v>
+        <v>-2.423455476760864</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.1075390130281448</v>
+        <v>3.708428859710693</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.1782891452312469</v>
+        <v>-1.524808168411255</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.1407471597194672</v>
+        <v>-5.803544998168945</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.1344569027423859</v>
+        <v>3.653438806533813</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.2185702472925186</v>
+        <v>-1.078752040863037</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.1587845683097839</v>
+        <v>-6.380487442016602</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.1054454445838928</v>
+        <v>2.340741634368896</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.1622763276100159</v>
+        <v>0.1744883805513382</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.1403177827596664</v>
+        <v>-4.569260597229004</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.1218274161219597</v>
+        <v>3.441035270690918</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.1730104982852936</v>
+        <v>-1.374897956848145</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.130811482667923</v>
+        <v>-5.434584140777588</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.1474061608314514</v>
+        <v>3.282775163650513</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.2334535419940948</v>
+        <v>-0.4303539395332336</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.1644600927829742</v>
+        <v>-6.297510623931885</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.1613666415214539</v>
+        <v>3.841936349868774</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.244679182767868</v>
+        <v>-0.9575491547584534</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.1750744134187698</v>
+        <v>-6.731736660003662</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.1233927831053734</v>
+        <v>3.079482078552246</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.1784235537052155</v>
+        <v>-1.087195634841919</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.1436100602149963</v>
+        <v>-4.913909435272217</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.1475111544132233</v>
+        <v>4.112356662750244</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.2156188488006592</v>
+        <v>-1.426790475845337</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.1445342749357224</v>
+        <v>-6.639785766601562</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.09268568456172943</v>
+        <v>1.82703959941864</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.1500902622938156</v>
+        <v>0.2372353225946426</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.1437801420688629</v>
+        <v>-3.360526561737061</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.1542950570583344</v>
+        <v>3.722785234451294</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.2261786758899689</v>
+        <v>-1.018220663070679</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.1564718633890152</v>
+        <v>-6.42943000793457</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.113905631005764</v>
+        <v>2.839619636535645</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.1835248917341232</v>
+        <v>-0.8508557677268982</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.1512166261672974</v>
+        <v>-4.943936347961426</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.1131035387516022</v>
+        <v>1.28092086315155</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.1359512805938721</v>
+        <v>-0.09662079811096191</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.1197821795940399</v>
+        <v>-2.489322185516357</v>
       </c>
     </row>
     <row r="210">
@@ -3361,13 +3361,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.1644651144742966</v>
+        <v>3.875981330871582</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.251882016658783</v>
+        <v>-0.8731842637062073</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.1757410764694214</v>
+        <v>-6.925447940826416</v>
       </c>
     </row>
     <row r="211">
@@ -3375,13 +3375,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.1248955652117729</v>
+        <v>1.918571829795837</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.1814094036817551</v>
+        <v>-0.2777548432350159</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.141467809677124</v>
+        <v>-3.863332986831665</v>
       </c>
     </row>
     <row r="212">
@@ -3389,13 +3389,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.1217136681079865</v>
+        <v>2.783227920532227</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.1960975378751755</v>
+        <v>-0.2708928287029266</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.1522419005632401</v>
+        <v>-5.695934772491455</v>
       </c>
     </row>
     <row r="213">
@@ -3403,13 +3403,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.08638294786214828</v>
+        <v>5.89091968536377</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.1421740651130676</v>
+        <v>-2.760218858718872</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.1231525987386703</v>
+        <v>-7.766240119934082</v>
       </c>
     </row>
     <row r="214">
@@ -3417,13 +3417,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.09344536066055298</v>
+        <v>0.407399594783783</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.1270281672477722</v>
+        <v>0.2109992057085037</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.1273011565208435</v>
+        <v>-1.760399341583252</v>
       </c>
     </row>
     <row r="215">
@@ -3431,13 +3431,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.08651328086853027</v>
+        <v>2.819715976715088</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.1413585841655731</v>
+        <v>-1.365339994430542</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.1374848037958145</v>
+        <v>-4.396317481994629</v>
       </c>
     </row>
     <row r="216">
@@ -3445,13 +3445,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.07540939003229141</v>
+        <v>5.523393154144287</v>
       </c>
       <c r="C216" t="n">
-        <v>-0.101719968020916</v>
+        <v>-3.312710523605347</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.1005813702940941</v>
+        <v>-6.656266212463379</v>
       </c>
     </row>
     <row r="217">
@@ -3459,13 +3459,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.05147931724786758</v>
+        <v>0.2102113962173462</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.07582790404558182</v>
+        <v>0.4293698966503143</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.1785274744033813</v>
+        <v>-1.353804230690002</v>
       </c>
     </row>
     <row r="218">
@@ -3473,13 +3473,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.1059133186936378</v>
+        <v>1.974396586418152</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.1824114620685577</v>
+        <v>0.3879698216915131</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.1723846197128296</v>
+        <v>-4.388667583465576</v>
       </c>
     </row>
     <row r="219">
@@ -3487,13 +3487,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.1118592917919159</v>
+        <v>2.021525382995605</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.1765798330307007</v>
+        <v>-0.03544789552688599</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.155931144952774</v>
+        <v>-4.08155632019043</v>
       </c>
     </row>
     <row r="220">
@@ -3501,13 +3501,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.1544274240732193</v>
+        <v>3.262864589691162</v>
       </c>
       <c r="C220" t="n">
-        <v>-0.2414030581712723</v>
+        <v>-0.4211645722389221</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.1694658398628235</v>
+        <v>-6.286247253417969</v>
       </c>
     </row>
     <row r="221">
@@ -3515,13 +3515,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.1173895820975304</v>
+        <v>4.218246936798096</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.1669709235429764</v>
+        <v>-1.714022874832153</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.1289224177598953</v>
+        <v>-6.170967578887939</v>
       </c>
     </row>
     <row r="222">
@@ -3529,13 +3529,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.1314983814954758</v>
+        <v>2.838479518890381</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.2039192765951157</v>
+        <v>-0.7975481152534485</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.1626843065023422</v>
+        <v>-5.197263717651367</v>
       </c>
     </row>
     <row r="223">
@@ -3543,13 +3543,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.1523630917072296</v>
+        <v>4.194201946258545</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.2029983997344971</v>
+        <v>-1.616541862487793</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.1328399777412415</v>
+        <v>-6.476758480072021</v>
       </c>
     </row>
     <row r="224">
@@ -3557,13 +3557,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.102947860956192</v>
+        <v>2.234097957611084</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.1685810834169388</v>
+        <v>-0.668765127658844</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.1376975625753403</v>
+        <v>-4.101086616516113</v>
       </c>
     </row>
     <row r="225">
@@ -3571,13 +3571,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.1474858522415161</v>
+        <v>3.569377422332764</v>
       </c>
       <c r="C225" t="n">
-        <v>-0.2210421115159988</v>
+        <v>-1.024207830429077</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.1645463109016418</v>
+        <v>-6.042602062225342</v>
       </c>
     </row>
     <row r="226">
@@ -3585,13 +3585,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.1369223296642303</v>
+        <v>3.33429479598999</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.2243726551532745</v>
+        <v>-0.5880190134048462</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.1670287251472473</v>
+        <v>-6.372222900390625</v>
       </c>
     </row>
     <row r="227">
@@ -3599,13 +3599,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.1288915127515793</v>
+        <v>3.964990139007568</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.2049215584993362</v>
+        <v>-1.432486772537231</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.145500585436821</v>
+        <v>-6.577016830444336</v>
       </c>
     </row>
     <row r="228">
@@ -3613,13 +3613,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.08777494728565216</v>
+        <v>2.170599699020386</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.143598347902298</v>
+        <v>0.3199331164360046</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.137636199593544</v>
+        <v>-4.342721462249756</v>
       </c>
     </row>
     <row r="229">
@@ -3627,13 +3627,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.1017715781927109</v>
+        <v>1.640354990959167</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.1660029143095016</v>
+        <v>0.5565651655197144</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.1582441329956055</v>
+        <v>-3.765407800674438</v>
       </c>
     </row>
     <row r="230">
@@ -3641,13 +3641,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.102376863360405</v>
+        <v>3.70392894744873</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.1704952269792557</v>
+        <v>-1.402773380279541</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.1370056569576263</v>
+        <v>-5.840195655822754</v>
       </c>
     </row>
     <row r="231">
@@ -3655,13 +3655,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.08074397593736649</v>
+        <v>2.468868494033813</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.1394463330507278</v>
+        <v>-1.113006114959717</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1173212379217148</v>
+        <v>-3.75667929649353</v>
       </c>
     </row>
     <row r="232">
@@ -3669,13 +3669,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.1069160625338554</v>
+        <v>3.632143497467041</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.1644595265388489</v>
+        <v>-2.017826795578003</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.1326959729194641</v>
+        <v>-5.134764671325684</v>
       </c>
     </row>
     <row r="233">
@@ -3683,13 +3683,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.09299182891845703</v>
+        <v>1.838700771331787</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.1527639925479889</v>
+        <v>0.1262029409408569</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.1339218318462372</v>
+        <v>-3.74202823638916</v>
       </c>
     </row>
     <row r="234">
@@ -3697,13 +3697,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.1320086717605591</v>
+        <v>3.2304847240448</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.2124374806880951</v>
+        <v>-0.7237690091133118</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.1509231328964233</v>
+        <v>-5.974080085754395</v>
       </c>
     </row>
     <row r="235">
@@ -3711,13 +3711,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.07500366866588593</v>
+        <v>5.431955814361572</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.1202602535486221</v>
+        <v>-2.756564140319824</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.1070252358913422</v>
+        <v>-6.58659029006958</v>
       </c>
     </row>
     <row r="236">
@@ -3725,13 +3725,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.1021931692957878</v>
+        <v>4.804715156555176</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.1495957374572754</v>
+        <v>-2.387229442596436</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.1255446225404739</v>
+        <v>-6.512908935546875</v>
       </c>
     </row>
     <row r="237">
@@ -3739,13 +3739,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.1489566266536713</v>
+        <v>3.420882225036621</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.2298790812492371</v>
+        <v>-0.7454569935798645</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.1686637997627258</v>
+        <v>-6.123438835144043</v>
       </c>
     </row>
     <row r="238">
@@ -3753,13 +3753,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.1092258244752884</v>
+        <v>4.195214748382568</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.1460581421852112</v>
+        <v>-2.227440595626831</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.1057276129722595</v>
+        <v>-5.536092281341553</v>
       </c>
     </row>
     <row r="239">
@@ -3767,13 +3767,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.1547458916902542</v>
+        <v>3.852212905883789</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.2373295426368713</v>
+        <v>-0.99039226770401</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.1596845239400864</v>
+        <v>-6.793890953063965</v>
       </c>
     </row>
     <row r="240">
@@ -3781,13 +3781,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.08903604745864868</v>
+        <v>1.614179491996765</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.1552425026893616</v>
+        <v>0.6047860383987427</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.1702033430337906</v>
+        <v>-3.609318256378174</v>
       </c>
     </row>
     <row r="241">
@@ -3795,13 +3795,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.04952466860413551</v>
+        <v>9.038830757141113</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.06743650883436203</v>
+        <v>-6.081006526947021</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.04967838525772095</v>
+        <v>-9.93877124786377</v>
       </c>
     </row>
     <row r="242">
@@ -3809,13 +3809,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.124986819922924</v>
+        <v>4.261081695556641</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.1875005215406418</v>
+        <v>-1.828271389007568</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.1378059983253479</v>
+        <v>-6.338330268859863</v>
       </c>
     </row>
     <row r="243">
@@ -3823,13 +3823,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.1290218234062195</v>
+        <v>2.943822860717773</v>
       </c>
       <c r="C243" t="n">
-        <v>-0.2010607272386551</v>
+        <v>-0.8318548798561096</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.1525721102952957</v>
+        <v>-5.337127685546875</v>
       </c>
     </row>
     <row r="244">
@@ -3837,13 +3837,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.1226529777050018</v>
+        <v>2.74044132232666</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.1950895637273788</v>
+        <v>-0.1516056656837463</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.1505287289619446</v>
+        <v>-5.50343132019043</v>
       </c>
     </row>
     <row r="245">
@@ -3851,13 +3851,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.1413031220436096</v>
+        <v>3.86082124710083</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.2227997779846191</v>
+        <v>-1.219731330871582</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.1519175916910172</v>
+        <v>-6.51863956451416</v>
       </c>
     </row>
     <row r="246">
@@ -3865,13 +3865,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.05404015630483627</v>
+        <v>0.3164534866809845</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.08576942980289459</v>
+        <v>0.3103965222835541</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.1487288028001785</v>
+        <v>-1.588794469833374</v>
       </c>
     </row>
     <row r="247">
@@ -3879,13 +3879,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.08647969365119934</v>
+        <v>4.28749942779541</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.1300857365131378</v>
+        <v>-1.856648445129395</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.1231741607189178</v>
+        <v>-6.396984100341797</v>
       </c>
     </row>
     <row r="248">
@@ -3893,13 +3893,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.1614164412021637</v>
+        <v>3.453797817230225</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.2492057681083679</v>
+        <v>-0.499806821346283</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.1770125031471252</v>
+        <v>-6.600393772125244</v>
       </c>
     </row>
   </sheetData>

--- a/programs/autoencoder/data/result_enc.xlsx
+++ b/programs/autoencoder/data/result_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.830260038375854</v>
+        <v>1.744004607200623</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4968747496604919</v>
+        <v>-2.034937381744385</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.399898529052734</v>
+        <v>-1.277897953987122</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.01875638961792</v>
+        <v>1.572419404983521</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2129254192113876</v>
+        <v>-1.953206419944763</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.087001800537109</v>
+        <v>-1.396929860115051</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.798899412155151</v>
+        <v>2.043644905090332</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03939124941825867</v>
+        <v>-2.18952465057373</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.966450214385986</v>
+        <v>-1.675114870071411</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.445475816726685</v>
+        <v>0.9830509424209595</v>
       </c>
       <c r="C5" t="n">
-        <v>0.821928083896637</v>
+        <v>-1.804842233657837</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.007950305938721</v>
+        <v>-1.208175182342529</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.997830510139465</v>
+        <v>1.704382181167603</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05181132256984711</v>
+        <v>-1.870038390159607</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.414924621582031</v>
+        <v>-1.493499875068665</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.590430736541748</v>
+        <v>1.499697327613831</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9232129454612732</v>
+        <v>-1.239988923072815</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.151580810546875</v>
+        <v>-1.212616443634033</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.431331634521484</v>
+        <v>1.915158987045288</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.8288679718971252</v>
+        <v>-1.917744517326355</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.295332908630371</v>
+        <v>-1.217604279518127</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.048435211181641</v>
+        <v>1.518944382667542</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.563558340072632</v>
+        <v>-1.300520062446594</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.57681941986084</v>
+        <v>-0.8100206255912781</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.599594116210938</v>
+        <v>1.964693069458008</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.8674004673957825</v>
+        <v>-1.826110243797302</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.496679306030273</v>
+        <v>-1.313534140586853</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.68889331817627</v>
+        <v>1.89039409160614</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.151272535324097</v>
+        <v>-1.600767254829407</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.335821151733398</v>
+        <v>-1.238359570503235</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.209340572357178</v>
+        <v>1.270442724227905</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.140486001968384</v>
+        <v>-1.287053942680359</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.432476997375488</v>
+        <v>-0.7706190943717957</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.185823917388916</v>
+        <v>1.653918623924255</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.866240501403809</v>
+        <v>-1.440373301506042</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.35698127746582</v>
+        <v>-0.9876331686973572</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.303670883178711</v>
+        <v>1.991379737854004</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.584926426410675</v>
+        <v>-1.838180422782898</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.186361789703369</v>
+        <v>-1.443946957588196</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.933093070983887</v>
+        <v>1.880324602127075</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.366800785064697</v>
+        <v>-1.644972562789917</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.437253475189209</v>
+        <v>-1.195107698440552</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.959005355834961</v>
+        <v>1.868658781051636</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.2898624241352081</v>
+        <v>-1.947135090827942</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.668373584747314</v>
+        <v>-1.406308054924011</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.899600148200989</v>
+        <v>1.629333019256592</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.07237029075622559</v>
+        <v>-1.717983484268188</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.884178876876831</v>
+        <v>-1.441992402076721</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.346060276031494</v>
+        <v>1.939384460449219</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.039616823196411</v>
+        <v>-1.548395156860352</v>
       </c>
       <c r="D18" t="n">
-        <v>-5.682873725891113</v>
+        <v>-1.299373269081116</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.676787853240967</v>
+        <v>1.565792798995972</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.8616445660591125</v>
+        <v>-1.297864317893982</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.730351448059082</v>
+        <v>-1.04793393611908</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.501453638076782</v>
+        <v>1.491529703140259</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.422235727310181</v>
+        <v>-1.357852458953857</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.30567455291748</v>
+        <v>-0.9620691537857056</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.540466070175171</v>
+        <v>1.868906378746033</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.214929580688477</v>
+        <v>-1.456096291542053</v>
       </c>
       <c r="D21" t="n">
-        <v>-5.928731918334961</v>
+        <v>-1.17024290561676</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.264668941497803</v>
+        <v>1.861361145973206</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.666537046432495</v>
+        <v>-1.610046863555908</v>
       </c>
       <c r="D22" t="n">
-        <v>-6.62290096282959</v>
+        <v>-1.115430355072021</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.676227569580078</v>
+        <v>1.519215822219849</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.467906713485718</v>
+        <v>-1.720385074615479</v>
       </c>
       <c r="D23" t="n">
-        <v>-5.58212947845459</v>
+        <v>-1.026457071304321</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.754455089569092</v>
+        <v>2.011014699935913</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1207649111747742</v>
+        <v>-2.218432664871216</v>
       </c>
       <c r="D24" t="n">
-        <v>-5.876607418060303</v>
+        <v>-1.647206425666809</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.641261577606201</v>
+        <v>1.301717638969421</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.4496031999588013</v>
+        <v>-1.425178647041321</v>
       </c>
       <c r="D25" t="n">
-        <v>-3.055644035339355</v>
+        <v>-1.049722909927368</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.243738174438477</v>
+        <v>1.986355185508728</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.4946944713592529</v>
+        <v>-1.860752701759338</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.195804595947266</v>
+        <v>-1.422422766685486</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.615384578704834</v>
+        <v>2.104189872741699</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.616055965423584</v>
+        <v>-1.966373562812805</v>
       </c>
       <c r="D27" t="n">
-        <v>-6.752259254455566</v>
+        <v>-1.48518693447113</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.470348238945007</v>
+        <v>1.004665374755859</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5581150650978088</v>
+        <v>-1.634197473526001</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.088495254516602</v>
+        <v>-1.065420985221863</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.901114702224731</v>
+        <v>2.015947341918945</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.063356161117554</v>
+        <v>-1.808020234107971</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.789129257202148</v>
+        <v>-1.328466773033142</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.466681957244873</v>
+        <v>1.747275114059448</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.00989294052124</v>
+        <v>-1.455018162727356</v>
       </c>
       <c r="D30" t="n">
-        <v>-6.502915382385254</v>
+        <v>-0.9877699017524719</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.246681451797485</v>
+        <v>1.900834083557129</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.7444373965263367</v>
+        <v>-1.695408463478088</v>
       </c>
       <c r="D31" t="n">
-        <v>-5.881097793579102</v>
+        <v>-1.340137600898743</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.59551477432251</v>
+        <v>1.607112407684326</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.467316865921021</v>
+        <v>-1.530572295188904</v>
       </c>
       <c r="D32" t="n">
-        <v>-5.79925537109375</v>
+        <v>-1.024924874305725</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.273725509643555</v>
+        <v>1.796696305274963</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.666377782821655</v>
+        <v>-1.599284648895264</v>
       </c>
       <c r="D33" t="n">
-        <v>-6.542702198028564</v>
+        <v>-1.103625178337097</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.488251686096191</v>
+        <v>1.877262353897095</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.046994686126709</v>
+        <v>-1.590782642364502</v>
       </c>
       <c r="D34" t="n">
-        <v>-6.089110374450684</v>
+        <v>-1.242017507553101</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.061100244522095</v>
+        <v>1.275250434875488</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.299495220184326</v>
+        <v>-0.6813944578170776</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.349809169769287</v>
+        <v>-0.9491989016532898</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.20685887336731</v>
+        <v>1.906290888786316</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.7807039022445679</v>
+        <v>-1.733211278915405</v>
       </c>
       <c r="D36" t="n">
-        <v>-5.760847091674805</v>
+        <v>-1.364510893821716</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.782741785049438</v>
+        <v>1.530364990234375</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3565966784954071</v>
+        <v>-2.145928859710693</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.489398002624512</v>
+        <v>-1.418620467185974</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.63230299949646</v>
+        <v>2.103914022445679</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.6348852515220642</v>
+        <v>-1.978755116462708</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.761961460113525</v>
+        <v>-1.482863903045654</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.84337854385376</v>
+        <v>1.459691047668457</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.277787208557129</v>
+        <v>-1.000439405441284</v>
       </c>
       <c r="D39" t="n">
-        <v>-4.605634689331055</v>
+        <v>-0.9208044409751892</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.880881071090698</v>
+        <v>2.054373979568481</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.9772985577583313</v>
+        <v>-1.795928001403809</v>
       </c>
       <c r="D40" t="n">
-        <v>-6.840225219726562</v>
+        <v>-1.370598435401917</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.429115533828735</v>
+        <v>1.190235614776611</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.28366231918335</v>
+        <v>-0.1034606695175171</v>
       </c>
       <c r="D41" t="n">
-        <v>-5.956084251403809</v>
+        <v>-0.5129653215408325</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.482655048370361</v>
+        <v>1.941016674041748</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.8990738987922668</v>
+        <v>-1.599087834358215</v>
       </c>
       <c r="D42" t="n">
-        <v>-6.213698387145996</v>
+        <v>-1.255437731742859</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.083242177963257</v>
+        <v>1.832049369812012</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.7103621959686279</v>
+        <v>-1.649415731430054</v>
       </c>
       <c r="D43" t="n">
-        <v>-5.778234481811523</v>
+        <v>-1.260273814201355</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.32309889793396</v>
+        <v>2.0322105884552</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.5213094353675842</v>
+        <v>-2.029398679733276</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.425748825073242</v>
+        <v>-1.469974160194397</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.124947786331177</v>
+        <v>1.750031709671021</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3872289955615997</v>
+        <v>-2.432013511657715</v>
       </c>
       <c r="D45" t="n">
-        <v>-4.420533657073975</v>
+        <v>-1.582707643508911</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.199117660522461</v>
+        <v>1.832671761512756</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.607738018035889</v>
+        <v>-1.626657485961914</v>
       </c>
       <c r="D46" t="n">
-        <v>-6.631618499755859</v>
+        <v>-1.139917016029358</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.366387844085693</v>
+        <v>1.384594917297363</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.8417574763298035</v>
+        <v>-1.096708655357361</v>
       </c>
       <c r="D47" t="n">
-        <v>-4.01210355758667</v>
+        <v>-1.015020966529846</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.612041473388672</v>
+        <v>1.997401595115662</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8156358599662781</v>
+        <v>-1.777899622917175</v>
       </c>
       <c r="D48" t="n">
-        <v>-6.413558959960938</v>
+        <v>-1.355931401252747</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.258546829223633</v>
+        <v>2.066683053970337</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.3437126874923706</v>
+        <v>-2.12018084526062</v>
       </c>
       <c r="D49" t="n">
-        <v>-6.399590015411377</v>
+        <v>-1.549653649330139</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.713735103607178</v>
+        <v>1.768970966339111</v>
       </c>
       <c r="C50" t="n">
-        <v>-2.083520412445068</v>
+        <v>-1.516149163246155</v>
       </c>
       <c r="D50" t="n">
-        <v>-6.741596221923828</v>
+        <v>-1.00620448589325</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.838665962219238</v>
+        <v>1.743420958518982</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.3528140783309937</v>
+        <v>-1.977641463279724</v>
       </c>
       <c r="D51" t="n">
-        <v>-5.245471000671387</v>
+        <v>-1.354435563087463</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.129467964172363</v>
+        <v>1.365208983421326</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.6317861080169678</v>
+        <v>-1.338883757591248</v>
       </c>
       <c r="D52" t="n">
-        <v>-3.478890419006348</v>
+        <v>-1.282453179359436</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.870100021362305</v>
+        <v>1.633554458618164</v>
       </c>
       <c r="C53" t="n">
-        <v>-2.828971862792969</v>
+        <v>-1.610814929008484</v>
       </c>
       <c r="D53" t="n">
-        <v>-7.669073581695557</v>
+        <v>-0.9307877421379089</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.243234634399414</v>
+        <v>1.780802845954895</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.868634045124054</v>
+        <v>-1.844012975692749</v>
       </c>
       <c r="D54" t="n">
-        <v>-5.759732246398926</v>
+        <v>-1.191980838775635</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.336041450500488</v>
+        <v>1.969772577285767</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.225003004074097</v>
+        <v>-1.355169892311096</v>
       </c>
       <c r="D55" t="n">
-        <v>-5.466827869415283</v>
+        <v>-1.241202354431152</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.820456147193909</v>
+        <v>1.612547516822815</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.2086794674396515</v>
+        <v>-1.657299876213074</v>
       </c>
       <c r="D56" t="n">
-        <v>-3.490084171295166</v>
+        <v>-1.468865275382996</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.391358137130737</v>
+        <v>1.478225946426392</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.719996929168701</v>
+        <v>-0.9179407358169556</v>
       </c>
       <c r="D57" t="n">
-        <v>-4.713884353637695</v>
+        <v>-0.9187671542167664</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.666515350341797</v>
+        <v>1.676897048950195</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.5605931878089905</v>
+        <v>-1.504810810089111</v>
       </c>
       <c r="D58" t="n">
-        <v>-4.857566356658936</v>
+        <v>-1.237364411354065</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.506900787353516</v>
+        <v>1.928124666213989</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.129224061965942</v>
+        <v>-1.566275715827942</v>
       </c>
       <c r="D59" t="n">
-        <v>-5.96229362487793</v>
+        <v>-1.278711676597595</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.028264403343201</v>
+        <v>1.204999685287476</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0468473881483078</v>
+        <v>-0.991736888885498</v>
       </c>
       <c r="D60" t="n">
-        <v>-2.891984462738037</v>
+        <v>-0.7766080498695374</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.692382097244263</v>
+        <v>1.710397481918335</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.3975138068199158</v>
+        <v>-1.942685127258301</v>
       </c>
       <c r="D61" t="n">
-        <v>-5.270262718200684</v>
+        <v>-1.269575238227844</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.22171688079834</v>
+        <v>1.45690929889679</v>
       </c>
       <c r="C62" t="n">
-        <v>-3.105804920196533</v>
+        <v>-1.08762788772583</v>
       </c>
       <c r="D62" t="n">
-        <v>-6.356218814849854</v>
+        <v>-0.6342650651931763</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.711206436157227</v>
+        <v>2.010995149612427</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.9862397313117981</v>
+        <v>-1.71234118938446</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.512265205383301</v>
+        <v>-1.339676976203918</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.577809810638428</v>
+        <v>1.548966646194458</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.8701701760292053</v>
+        <v>-1.307055950164795</v>
       </c>
       <c r="D64" t="n">
-        <v>-4.251025676727295</v>
+        <v>-1.233596682548523</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.758123874664307</v>
+        <v>1.683628797531128</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.5713009238243103</v>
+        <v>-1.525213599205017</v>
       </c>
       <c r="D65" t="n">
-        <v>-5.31511116027832</v>
+        <v>-1.137293338775635</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.678335428237915</v>
+        <v>1.528408050537109</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6693859100341797</v>
+        <v>-1.998384594917297</v>
       </c>
       <c r="D66" t="n">
-        <v>-4.291570663452148</v>
+        <v>-1.270845770835876</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.500457763671875</v>
+        <v>1.906044483184814</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.8938514590263367</v>
+        <v>-1.679378151893616</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.249737739562988</v>
+        <v>-1.285069108009338</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.396413326263428</v>
+        <v>1.224634408950806</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8552036285400391</v>
+        <v>-2.127447366714478</v>
       </c>
       <c r="D68" t="n">
-        <v>-2.705386638641357</v>
+        <v>-1.201740860939026</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.127377510070801</v>
+        <v>1.719284772872925</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3353859484195709</v>
+        <v>-2.36667799949646</v>
       </c>
       <c r="D69" t="n">
-        <v>-4.687935352325439</v>
+        <v>-1.468407511711121</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.262152194976807</v>
+        <v>1.246294856071472</v>
       </c>
       <c r="C70" t="n">
-        <v>-4.013533115386963</v>
+        <v>-0.9124360084533691</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.252462387084961</v>
+        <v>-0.3412184119224548</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.410882949829102</v>
+        <v>1.981594920158386</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.6934992671012878</v>
+        <v>-1.847342371940613</v>
       </c>
       <c r="D71" t="n">
-        <v>-6.393787860870361</v>
+        <v>-1.378624081611633</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.344837188720703</v>
+        <v>1.913529515266418</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.347403764724731</v>
+        <v>-1.246073842048645</v>
       </c>
       <c r="D72" t="n">
-        <v>-5.436375141143799</v>
+        <v>-1.140711188316345</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.302713871002197</v>
+        <v>1.513856649398804</v>
       </c>
       <c r="C73" t="n">
-        <v>-2.119442462921143</v>
+        <v>-1.235737442970276</v>
       </c>
       <c r="D73" t="n">
-        <v>-5.920871734619141</v>
+        <v>-0.8209376335144043</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.209015846252441</v>
+        <v>1.321195840835571</v>
       </c>
       <c r="C74" t="n">
-        <v>-3.462961196899414</v>
+        <v>-1.269237041473389</v>
       </c>
       <c r="D74" t="n">
-        <v>-7.137332916259766</v>
+        <v>-0.6935491561889648</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.840378761291504</v>
+        <v>1.889339923858643</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.3953888416290283</v>
+        <v>-1.780993103981018</v>
       </c>
       <c r="D75" t="n">
-        <v>-5.449705600738525</v>
+        <v>-1.445162534713745</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.980782747268677</v>
+        <v>1.661043286323547</v>
       </c>
       <c r="C76" t="n">
-        <v>-2.172948360443115</v>
+        <v>-1.116550445556641</v>
       </c>
       <c r="D76" t="n">
-        <v>-5.820253372192383</v>
+        <v>-0.8451734781265259</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.466432094573975</v>
+        <v>1.57356071472168</v>
       </c>
       <c r="C77" t="n">
-        <v>-2.62712025642395</v>
+        <v>-0.8485569357872009</v>
       </c>
       <c r="D77" t="n">
-        <v>-5.634986400604248</v>
+        <v>-0.6469768881797791</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.918197393417358</v>
+        <v>1.761377811431885</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.7773494124412537</v>
+        <v>-1.523615479469299</v>
       </c>
       <c r="D78" t="n">
-        <v>-5.17741584777832</v>
+        <v>-1.261697173118591</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.518617630004883</v>
+        <v>1.979775428771973</v>
       </c>
       <c r="C79" t="n">
-        <v>-1.130843877792358</v>
+        <v>-1.548577308654785</v>
       </c>
       <c r="D79" t="n">
-        <v>-5.90455150604248</v>
+        <v>-1.292995810508728</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.462883472442627</v>
+        <v>1.912830591201782</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.7809963822364807</v>
+        <v>-1.763630032539368</v>
       </c>
       <c r="D80" t="n">
-        <v>-6.274405002593994</v>
+        <v>-1.30935537815094</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.232101440429688</v>
+        <v>1.779394507408142</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3067196011543274</v>
+        <v>-2.305496215820312</v>
       </c>
       <c r="D81" t="n">
-        <v>-4.434007167816162</v>
+        <v>-1.643526196479797</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.049273014068604</v>
+        <v>1.717568874359131</v>
       </c>
       <c r="C82" t="n">
-        <v>-1.017944812774658</v>
+        <v>-1.423251628875732</v>
       </c>
       <c r="D82" t="n">
-        <v>-5.012838363647461</v>
+        <v>-1.177189588546753</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.894274711608887</v>
+        <v>1.372254371643066</v>
       </c>
       <c r="C83" t="n">
-        <v>-2.030300855636597</v>
+        <v>-1.027377247810364</v>
       </c>
       <c r="D83" t="n">
-        <v>-5.345715522766113</v>
+        <v>-0.7479912638664246</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.335020542144775</v>
+        <v>1.799061298370361</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.56624174118042</v>
+        <v>-1.038111925125122</v>
       </c>
       <c r="D84" t="n">
-        <v>-4.82811164855957</v>
+        <v>-1.060446381568909</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1446159482002258</v>
+        <v>0.4633812010288239</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0115087628364563</v>
+        <v>-0.9855561256408691</v>
       </c>
       <c r="D85" t="n">
-        <v>-1.56986939907074</v>
+        <v>-0.5700951218605042</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.657004594802856</v>
+        <v>1.62136435508728</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5926560759544373</v>
+        <v>-2.319554567337036</v>
       </c>
       <c r="D86" t="n">
-        <v>-3.923561334609985</v>
+        <v>-1.320398807525635</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.930250644683838</v>
+        <v>1.748581409454346</v>
       </c>
       <c r="C87" t="n">
-        <v>-2.314951658248901</v>
+        <v>-1.523624777793884</v>
       </c>
       <c r="D87" t="n">
-        <v>-6.871488571166992</v>
+        <v>-0.9595165848731995</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.575362920761108</v>
+        <v>1.667745113372803</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.1579042673110962</v>
+        <v>-1.644748330116272</v>
       </c>
       <c r="D88" t="n">
-        <v>-4.759159564971924</v>
+        <v>-1.309361100196838</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.777862071990967</v>
+        <v>1.632064461708069</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.4509311318397522</v>
+        <v>-1.586733460426331</v>
       </c>
       <c r="D89" t="n">
-        <v>-4.866559028625488</v>
+        <v>-1.198947072029114</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.174134492874146</v>
+        <v>1.96735143661499</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.4058391451835632</v>
+        <v>-1.879013657569885</v>
       </c>
       <c r="D90" t="n">
-        <v>-6.024981498718262</v>
+        <v>-1.425438523292542</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2.89353084564209</v>
+        <v>1.564586281776428</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.7508617043495178</v>
+        <v>-1.664880990982056</v>
       </c>
       <c r="D91" t="n">
-        <v>-4.962826251983643</v>
+        <v>-1.088359475135803</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.440945148468018</v>
+        <v>1.565485239028931</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.6635421514511108</v>
+        <v>-1.225787878036499</v>
       </c>
       <c r="D92" t="n">
-        <v>-4.607739925384521</v>
+        <v>-1.087431788444519</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.077447652816772</v>
+        <v>1.575188159942627</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.4151787757873535</v>
+        <v>-1.458722949028015</v>
       </c>
       <c r="D93" t="n">
-        <v>-4.161045551300049</v>
+        <v>-1.265622496604919</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.097330808639526</v>
+        <v>1.583920001983643</v>
       </c>
       <c r="C94" t="n">
-        <v>0.008275255560874939</v>
+        <v>-1.915525794029236</v>
       </c>
       <c r="D94" t="n">
-        <v>-4.197679996490479</v>
+        <v>-1.456411719322205</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.213526725769043</v>
+        <v>1.741365909576416</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3132618069648743</v>
+        <v>-2.222840309143066</v>
       </c>
       <c r="D95" t="n">
-        <v>-4.560871124267578</v>
+        <v>-1.55199134349823</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.618420362472534</v>
+        <v>1.722439527511597</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.3396808505058289</v>
+        <v>-2.274738073348999</v>
       </c>
       <c r="D96" t="n">
-        <v>-4.987044811248779</v>
+        <v>-1.124370217323303</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.7199782729148865</v>
+        <v>0.6162383556365967</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3631024956703186</v>
+        <v>-1.220672488212585</v>
       </c>
       <c r="D97" t="n">
-        <v>-1.845304369926453</v>
+        <v>-0.7926676869392395</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.585239887237549</v>
+        <v>1.853683114051819</v>
       </c>
       <c r="C98" t="n">
-        <v>-1.857268333435059</v>
+        <v>-1.616178035736084</v>
       </c>
       <c r="D98" t="n">
-        <v>-6.829888343811035</v>
+        <v>-1.102840304374695</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.924685120582581</v>
+        <v>1.749669432640076</v>
       </c>
       <c r="C99" t="n">
-        <v>0.02278390526771545</v>
+        <v>-2.163406610488892</v>
       </c>
       <c r="D99" t="n">
-        <v>-3.822202205657959</v>
+        <v>-1.722359538078308</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.744650363922119</v>
+        <v>2.061447143554688</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.8279498219490051</v>
+        <v>-1.850574135780334</v>
       </c>
       <c r="D100" t="n">
-        <v>-6.759341239929199</v>
+        <v>-1.410895705223083</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2.999959468841553</v>
+        <v>1.866533517837524</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.6589505076408386</v>
+        <v>-1.584481358528137</v>
       </c>
       <c r="D101" t="n">
-        <v>-5.571138381958008</v>
+        <v>-1.267929196357727</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.392589092254639</v>
+        <v>1.900893807411194</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.9616201519966125</v>
+        <v>-1.613736987113953</v>
       </c>
       <c r="D102" t="n">
-        <v>-5.83419132232666</v>
+        <v>-1.297542691230774</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2.934208869934082</v>
+        <v>1.761179685592651</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.6708895564079285</v>
+        <v>-1.567604660987854</v>
       </c>
       <c r="D103" t="n">
-        <v>-5.44902515411377</v>
+        <v>-1.169175267219543</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.179214477539062</v>
+        <v>1.281965136528015</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.763105034828186</v>
+        <v>-1.02389931678772</v>
       </c>
       <c r="D104" t="n">
-        <v>-3.639796257019043</v>
+        <v>-1.002351641654968</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.288604021072388</v>
+        <v>1.251540660858154</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.819484531879425</v>
+        <v>-0.9306167960166931</v>
       </c>
       <c r="D105" t="n">
-        <v>-3.947152614593506</v>
+        <v>-0.8117964863777161</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.579332590103149</v>
+        <v>1.584156274795532</v>
       </c>
       <c r="C106" t="n">
-        <v>-1.670237302780151</v>
+        <v>-0.7545096874237061</v>
       </c>
       <c r="D106" t="n">
-        <v>-3.588422298431396</v>
+        <v>-1.001483559608459</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.234504699707031</v>
+        <v>1.869758129119873</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.8384378552436829</v>
+        <v>-1.651477694511414</v>
       </c>
       <c r="D107" t="n">
-        <v>-5.670157909393311</v>
+        <v>-1.319316148757935</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.852798104286194</v>
+        <v>1.465564250946045</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1485857665538788</v>
+        <v>-1.843441605567932</v>
       </c>
       <c r="D108" t="n">
-        <v>-3.712605953216553</v>
+        <v>-1.305831074714661</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.343586683273315</v>
+        <v>2.098608255386353</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.3835013508796692</v>
+        <v>-2.035515069961548</v>
       </c>
       <c r="D109" t="n">
-        <v>-6.550705432891846</v>
+        <v>-1.54418408870697</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2.384635448455811</v>
+        <v>1.397434949874878</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.8934014439582825</v>
+        <v>-1.033292412757874</v>
       </c>
       <c r="D110" t="n">
-        <v>-4.133396148681641</v>
+        <v>-0.9387865662574768</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.416610956192017</v>
+        <v>1.322969675064087</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7715162038803101</v>
+        <v>-2.103775501251221</v>
       </c>
       <c r="D111" t="n">
-        <v>-2.646792888641357</v>
+        <v>-1.173379182815552</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.665735006332397</v>
+        <v>1.992249965667725</v>
       </c>
       <c r="C112" t="n">
-        <v>-1.114855051040649</v>
+        <v>-1.597243785858154</v>
       </c>
       <c r="D112" t="n">
-        <v>-6.215594291687012</v>
+        <v>-1.279772639274597</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.803928852081299</v>
+        <v>1.777941703796387</v>
       </c>
       <c r="C113" t="n">
-        <v>-1.432578563690186</v>
+        <v>-1.504719018936157</v>
       </c>
       <c r="D113" t="n">
-        <v>-6.138979434967041</v>
+        <v>-1.103582262992859</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.654944658279419</v>
+        <v>1.976585984230042</v>
       </c>
       <c r="C114" t="n">
-        <v>-1.119239091873169</v>
+        <v>-1.615209341049194</v>
       </c>
       <c r="D114" t="n">
-        <v>-6.199215888977051</v>
+        <v>-1.294157862663269</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2.837495803833008</v>
+        <v>1.582891225814819</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.9623568654060364</v>
+        <v>-1.253312587738037</v>
       </c>
       <c r="D115" t="n">
-        <v>-4.760699272155762</v>
+        <v>-1.054751992225647</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.474516749382019</v>
+        <v>1.017303466796875</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8784906268119812</v>
+        <v>-1.898555517196655</v>
       </c>
       <c r="D116" t="n">
-        <v>-3.119666814804077</v>
+        <v>-1.176964044570923</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.786377429962158</v>
+        <v>1.586336970329285</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.739562749862671</v>
+        <v>-1.310296297073364</v>
       </c>
       <c r="D117" t="n">
-        <v>-5.755347728729248</v>
+        <v>-0.9391846060752869</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3647676706314087</v>
+        <v>0.4211108982563019</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.2302188873291016</v>
+        <v>-0.4241359233856201</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.8784031271934509</v>
+        <v>-0.5999054312705994</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.938482284545898</v>
+        <v>1.748988270759583</v>
       </c>
       <c r="C119" t="n">
-        <v>-2.203052997589111</v>
+        <v>-1.560401320457458</v>
       </c>
       <c r="D119" t="n">
-        <v>-6.992581367492676</v>
+        <v>-1.006600260734558</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.676575183868408</v>
+        <v>1.516677618026733</v>
       </c>
       <c r="C120" t="n">
-        <v>-1.86683464050293</v>
+        <v>-0.9902381896972656</v>
       </c>
       <c r="D120" t="n">
-        <v>-5.222876071929932</v>
+        <v>-0.8394916653633118</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2.556814908981323</v>
+        <v>1.626659393310547</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.2418613731861115</v>
+        <v>-1.804252743721008</v>
       </c>
       <c r="D121" t="n">
-        <v>-4.87328052520752</v>
+        <v>-1.247945308685303</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.84323525428772</v>
+        <v>1.720042824745178</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6111409068107605</v>
+        <v>-2.525439739227295</v>
       </c>
       <c r="D122" t="n">
-        <v>-4.381855964660645</v>
+        <v>-1.546916484832764</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2.563880443572998</v>
+        <v>1.509310960769653</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.674086332321167</v>
+        <v>-1.349315047264099</v>
       </c>
       <c r="D123" t="n">
-        <v>-4.218399047851562</v>
+        <v>-1.133719563484192</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.009082555770874</v>
+        <v>1.894227027893066</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.3636203408241272</v>
+        <v>-1.915445446968079</v>
       </c>
       <c r="D124" t="n">
-        <v>-5.820209503173828</v>
+        <v>-1.397760629653931</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.292819499969482</v>
+        <v>1.874913692474365</v>
       </c>
       <c r="C125" t="n">
-        <v>-1.072313547134399</v>
+        <v>-1.528032183647156</v>
       </c>
       <c r="D125" t="n">
-        <v>-5.245579719543457</v>
+        <v>-1.277639269828796</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2.622990131378174</v>
+        <v>1.632693529129028</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.6930140852928162</v>
+        <v>-1.364591121673584</v>
       </c>
       <c r="D126" t="n">
-        <v>-4.745875358581543</v>
+        <v>-1.16538679599762</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.884046316146851</v>
+        <v>1.455575346946716</v>
       </c>
       <c r="C127" t="n">
-        <v>-2.102735757827759</v>
+        <v>-1.063814520835876</v>
       </c>
       <c r="D127" t="n">
-        <v>-5.523617744445801</v>
+        <v>-0.7564559578895569</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2.675841808319092</v>
+        <v>1.728808045387268</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.3379935622215271</v>
+        <v>-1.704896569252014</v>
       </c>
       <c r="D128" t="n">
-        <v>-5.151937484741211</v>
+        <v>-1.240034461021423</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.015335083007812</v>
+        <v>1.82845675945282</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.428426206111908</v>
+        <v>-1.941985607147217</v>
       </c>
       <c r="D129" t="n">
-        <v>-5.589197635650635</v>
+        <v>-1.396617293357849</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2.201593399047852</v>
+        <v>1.483566761016846</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.5989781022071838</v>
+        <v>-1.236708521842957</v>
       </c>
       <c r="D130" t="n">
-        <v>-4.109817028045654</v>
+        <v>-1.097489953041077</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.584607124328613</v>
+        <v>1.548667669296265</v>
       </c>
       <c r="C131" t="n">
-        <v>-2.407263517379761</v>
+        <v>-1.210421204566956</v>
       </c>
       <c r="D131" t="n">
-        <v>-6.098872184753418</v>
+        <v>-0.7766984105110168</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2.571876049041748</v>
+        <v>1.794831037521362</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.1538428962230682</v>
+        <v>-1.812148690223694</v>
       </c>
       <c r="D132" t="n">
-        <v>-5.005417823791504</v>
+        <v>-1.423703908920288</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.33751916885376</v>
+        <v>1.872900485992432</v>
       </c>
       <c r="C133" t="n">
-        <v>-1.725477933883667</v>
+        <v>-1.605913877487183</v>
       </c>
       <c r="D133" t="n">
-        <v>-6.722334861755371</v>
+        <v>-1.118122458457947</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.817483901977539</v>
+        <v>1.667890071868896</v>
       </c>
       <c r="C134" t="n">
-        <v>0.07631315290927887</v>
+        <v>-2.462991714477539</v>
       </c>
       <c r="D134" t="n">
-        <v>-3.129707813262939</v>
+        <v>-1.824673533439636</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.430195808410645</v>
+        <v>1.973931908607483</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.6486169695854187</v>
+        <v>-1.913547277450562</v>
       </c>
       <c r="D135" t="n">
-        <v>-6.269272804260254</v>
+        <v>-1.407104134559631</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.313194751739502</v>
+        <v>1.767091035842896</v>
       </c>
       <c r="C136" t="n">
-        <v>-1.846648454666138</v>
+        <v>-1.445692896842957</v>
       </c>
       <c r="D136" t="n">
-        <v>-6.353163719177246</v>
+        <v>-1.02018415927887</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2.751195907592773</v>
+        <v>1.553056716918945</v>
       </c>
       <c r="C137" t="n">
-        <v>-1.170413732528687</v>
+        <v>-1.075968861579895</v>
       </c>
       <c r="D137" t="n">
-        <v>-4.292645931243896</v>
+        <v>-1.03114378452301</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.006806135177612</v>
+        <v>1.985716462135315</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.1634954810142517</v>
+        <v>-2.234442949295044</v>
       </c>
       <c r="D138" t="n">
-        <v>-5.993256092071533</v>
+        <v>-1.55444347858429</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.195113658905029</v>
+        <v>1.679497718811035</v>
       </c>
       <c r="C139" t="n">
-        <v>-2.125431537628174</v>
+        <v>-1.230793595314026</v>
       </c>
       <c r="D139" t="n">
-        <v>-5.922573089599609</v>
+        <v>-0.8773394227027893</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.958798170089722</v>
+        <v>1.540468335151672</v>
       </c>
       <c r="C140" t="n">
-        <v>-1.804210901260376</v>
+        <v>-1.531323909759521</v>
       </c>
       <c r="D140" t="n">
-        <v>-5.90395450592041</v>
+        <v>-1.018222689628601</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2.30060601234436</v>
+        <v>1.796033620834351</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1418700516223907</v>
+        <v>-2.111041307449341</v>
       </c>
       <c r="D141" t="n">
-        <v>-4.56533145904541</v>
+        <v>-1.61046826839447</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.033694744110107</v>
+        <v>1.879036426544189</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.4128422141075134</v>
+        <v>-1.984760642051697</v>
       </c>
       <c r="D142" t="n">
-        <v>-5.779091835021973</v>
+        <v>-1.385323286056519</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.325933456420898</v>
+        <v>1.713510274887085</v>
       </c>
       <c r="C143" t="n">
-        <v>-2.862886905670166</v>
+        <v>-1.469073414802551</v>
       </c>
       <c r="D143" t="n">
-        <v>-6.876800537109375</v>
+        <v>-0.8554055094718933</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2.83109712600708</v>
+        <v>1.772616744041443</v>
       </c>
       <c r="C144" t="n">
-        <v>-1.180503129959106</v>
+        <v>-1.180983066558838</v>
       </c>
       <c r="D144" t="n">
-        <v>-4.602173805236816</v>
+        <v>-1.161928772926331</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.541072845458984</v>
+        <v>1.857097387313843</v>
       </c>
       <c r="C145" t="n">
-        <v>-1.06755256652832</v>
+        <v>-1.664466619491577</v>
       </c>
       <c r="D145" t="n">
-        <v>-6.210651397705078</v>
+        <v>-1.218319535255432</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3.812294483184814</v>
+        <v>1.949370861053467</v>
       </c>
       <c r="C146" t="n">
-        <v>-1.129271030426025</v>
+        <v>-1.721518039703369</v>
       </c>
       <c r="D146" t="n">
-        <v>-6.519073963165283</v>
+        <v>-1.280026316642761</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.810359477996826</v>
+        <v>1.733350515365601</v>
       </c>
       <c r="C147" t="n">
-        <v>-2.198609113693237</v>
+        <v>-1.519068956375122</v>
       </c>
       <c r="D147" t="n">
-        <v>-6.7349853515625</v>
+        <v>-0.9895187020301819</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2.788402557373047</v>
+        <v>1.648067235946655</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.9652784466743469</v>
+        <v>-1.227200150489807</v>
       </c>
       <c r="D148" t="n">
-        <v>-4.694939613342285</v>
+        <v>-1.134207487106323</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3.770538091659546</v>
+        <v>1.90275502204895</v>
       </c>
       <c r="C149" t="n">
-        <v>-1.250267505645752</v>
+        <v>-1.580111622810364</v>
       </c>
       <c r="D149" t="n">
-        <v>-6.423775672912598</v>
+        <v>-1.214061260223389</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.220474123954773</v>
+        <v>1.104938983917236</v>
       </c>
       <c r="C150" t="n">
-        <v>0.7738540172576904</v>
+        <v>-2.181552886962891</v>
       </c>
       <c r="D150" t="n">
-        <v>-2.379603385925293</v>
+        <v>-1.127735495567322</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.4778043329715729</v>
+        <v>0.9551397562026978</v>
       </c>
       <c r="C151" t="n">
-        <v>0.007538378238677979</v>
+        <v>-1.315823554992676</v>
       </c>
       <c r="D151" t="n">
-        <v>-2.023407697677612</v>
+        <v>-0.7519744038581848</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.833211898803711</v>
+        <v>1.799869060516357</v>
       </c>
       <c r="C152" t="n">
-        <v>-2.094087362289429</v>
+        <v>-1.583244919776917</v>
       </c>
       <c r="D152" t="n">
-        <v>-6.944716453552246</v>
+        <v>-1.051921129226685</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>2.683021068572998</v>
+        <v>1.765032768249512</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.5530572533607483</v>
+        <v>-1.617096543312073</v>
       </c>
       <c r="D153" t="n">
-        <v>-4.911054611206055</v>
+        <v>-1.344678163528442</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2.635905265808105</v>
+        <v>1.215954661369324</v>
       </c>
       <c r="C154" t="n">
-        <v>-1.427024364471436</v>
+        <v>-0.7117716670036316</v>
       </c>
       <c r="D154" t="n">
-        <v>-3.735323905944824</v>
+        <v>-0.8973272442817688</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.355764865875244</v>
+        <v>1.681837320327759</v>
       </c>
       <c r="C155" t="n">
-        <v>-1.351983308792114</v>
+        <v>-1.287140846252441</v>
       </c>
       <c r="D155" t="n">
-        <v>-5.545791625976562</v>
+        <v>-1.03314745426178</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2.5549635887146</v>
+        <v>1.64669132232666</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.6347940564155579</v>
+        <v>-1.337849497795105</v>
       </c>
       <c r="D156" t="n">
-        <v>-4.712838172912598</v>
+        <v>-1.172764182090759</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3.059377670288086</v>
+        <v>1.814727425575256</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.8232086300849915</v>
+        <v>-1.595109820365906</v>
       </c>
       <c r="D157" t="n">
-        <v>-5.418953418731689</v>
+        <v>-1.291725516319275</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2.447944641113281</v>
+        <v>1.361650347709656</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.9899116158485413</v>
+        <v>-0.999677300453186</v>
       </c>
       <c r="D158" t="n">
-        <v>-3.974812030792236</v>
+        <v>-0.944184422492981</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2.953018665313721</v>
+        <v>1.926355242729187</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.4134010076522827</v>
+        <v>-1.827077388763428</v>
       </c>
       <c r="D159" t="n">
-        <v>-5.717554092407227</v>
+        <v>-1.456589579582214</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2.894964694976807</v>
+        <v>1.75537633895874</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.6690017580986023</v>
+        <v>-1.468587398529053</v>
       </c>
       <c r="D160" t="n">
-        <v>-5.392772674560547</v>
+        <v>-1.118752717971802</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.499095797538757</v>
+        <v>1.447124123573303</v>
       </c>
       <c r="C161" t="n">
-        <v>0.949834942817688</v>
+        <v>-2.608861446380615</v>
       </c>
       <c r="D161" t="n">
-        <v>-2.362932682037354</v>
+        <v>-1.727774858474731</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2.669636726379395</v>
+        <v>1.867911338806152</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.2219510674476624</v>
+        <v>-1.81308388710022</v>
       </c>
       <c r="D162" t="n">
-        <v>-5.340167045593262</v>
+        <v>-1.458044528961182</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2.778877258300781</v>
+        <v>1.563571929931641</v>
       </c>
       <c r="C163" t="n">
-        <v>-1.231173038482666</v>
+        <v>-1.04254424571991</v>
       </c>
       <c r="D163" t="n">
-        <v>-4.274642944335938</v>
+        <v>-1.023143887519836</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3.88538932800293</v>
+        <v>2.114820241928101</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.8549736142158508</v>
+        <v>-1.902776598930359</v>
       </c>
       <c r="D164" t="n">
-        <v>-6.970768928527832</v>
+        <v>-1.44365918636322</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3.105833530426025</v>
+        <v>1.82459020614624</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.5461840033531189</v>
+        <v>-1.786744475364685</v>
       </c>
       <c r="D165" t="n">
-        <v>-5.586068153381348</v>
+        <v>-1.326225399971008</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.138731002807617</v>
+        <v>1.803912162780762</v>
       </c>
       <c r="C166" t="n">
-        <v>-1.683288812637329</v>
+        <v>-1.51643967628479</v>
       </c>
       <c r="D166" t="n">
-        <v>-6.370486259460449</v>
+        <v>-1.075139164924622</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1.798668503761292</v>
+        <v>1.446763873100281</v>
       </c>
       <c r="C167" t="n">
-        <v>0.3361909985542297</v>
+        <v>-1.787886142730713</v>
       </c>
       <c r="D167" t="n">
-        <v>-3.89273738861084</v>
+        <v>-1.145653128623962</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.217617511749268</v>
+        <v>1.710007905960083</v>
       </c>
       <c r="C168" t="n">
-        <v>-1.719542026519775</v>
+        <v>-1.525068998336792</v>
       </c>
       <c r="D168" t="n">
-        <v>-6.353825569152832</v>
+        <v>-1.042670845985413</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3.639439344406128</v>
+        <v>1.82524299621582</v>
       </c>
       <c r="C169" t="n">
-        <v>-1.244512796401978</v>
+        <v>-1.587039232254028</v>
       </c>
       <c r="D169" t="n">
-        <v>-6.269024848937988</v>
+        <v>-1.191016793251038</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3.912240505218506</v>
+        <v>1.442444801330566</v>
       </c>
       <c r="C170" t="n">
-        <v>-2.360300064086914</v>
+        <v>-0.7787484526634216</v>
       </c>
       <c r="D170" t="n">
-        <v>-5.299827575683594</v>
+        <v>-0.671691358089447</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.271386981010437</v>
+        <v>0.9167667627334595</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.4764358997344971</v>
+        <v>-0.9064522981643677</v>
       </c>
       <c r="D171" t="n">
-        <v>-2.179989814758301</v>
+        <v>-0.7055184245109558</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.740163326263428</v>
+        <v>1.516040086746216</v>
       </c>
       <c r="C172" t="n">
-        <v>-2.839213132858276</v>
+        <v>-1.125707626342773</v>
       </c>
       <c r="D172" t="n">
-        <v>-6.226661682128906</v>
+        <v>-0.7060813307762146</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>2.799882411956787</v>
+        <v>1.577264189720154</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.6043530106544495</v>
+        <v>-1.498732089996338</v>
       </c>
       <c r="D173" t="n">
-        <v>-4.747888565063477</v>
+        <v>-1.12003755569458</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.285624504089355</v>
+        <v>1.760120153427124</v>
       </c>
       <c r="C174" t="n">
-        <v>-1.718533039093018</v>
+        <v>-1.531118273735046</v>
       </c>
       <c r="D174" t="n">
-        <v>-6.405454635620117</v>
+        <v>-1.075534462928772</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3.388644695281982</v>
+        <v>1.945992946624756</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.6954765915870667</v>
+        <v>-1.772457003593445</v>
       </c>
       <c r="D175" t="n">
-        <v>-6.174300670623779</v>
+        <v>-1.326294541358948</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>3.67728853225708</v>
+        <v>1.894251823425293</v>
       </c>
       <c r="C176" t="n">
-        <v>-1.405288934707642</v>
+        <v>-1.383861660957336</v>
       </c>
       <c r="D176" t="n">
-        <v>-5.939332485198975</v>
+        <v>-1.137362957000732</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.250494599342346</v>
+        <v>0.9481579065322876</v>
       </c>
       <c r="C177" t="n">
-        <v>0.4083653092384338</v>
+        <v>-1.284060120582581</v>
       </c>
       <c r="D177" t="n">
-        <v>-2.833845138549805</v>
+        <v>-1.090537190437317</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2.664044857025146</v>
+        <v>1.603668928146362</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.8552884459495544</v>
+        <v>-1.275967240333557</v>
       </c>
       <c r="D178" t="n">
-        <v>-4.657627105712891</v>
+        <v>-1.108148217201233</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5.141736030578613</v>
+        <v>1.483494758605957</v>
       </c>
       <c r="C179" t="n">
-        <v>-2.548327922821045</v>
+        <v>-1.422637104988098</v>
       </c>
       <c r="D179" t="n">
-        <v>-6.527103900909424</v>
+        <v>-0.8945475220680237</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.661110281944275</v>
+        <v>1.127597093582153</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.09959337115287781</v>
+        <v>-1.14837658405304</v>
       </c>
       <c r="D180" t="n">
-        <v>-3.189404010772705</v>
+        <v>-0.9561899900436401</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>3.364576101303101</v>
+        <v>1.920917987823486</v>
       </c>
       <c r="C181" t="n">
-        <v>-1.104457855224609</v>
+        <v>-1.489858865737915</v>
       </c>
       <c r="D181" t="n">
-        <v>-5.623473167419434</v>
+        <v>-1.259004592895508</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>3.906245708465576</v>
+        <v>1.516337275505066</v>
       </c>
       <c r="C182" t="n">
-        <v>-1.976598262786865</v>
+        <v>-1.107432007789612</v>
       </c>
       <c r="D182" t="n">
-        <v>-5.636654853820801</v>
+        <v>-0.8412167429924011</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>2.344460964202881</v>
+        <v>1.310689926147461</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.8459052443504333</v>
+        <v>-1.028109669685364</v>
       </c>
       <c r="D183" t="n">
-        <v>-4.023428916931152</v>
+        <v>-0.892402172088623</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4.849447727203369</v>
+        <v>1.804243087768555</v>
       </c>
       <c r="C184" t="n">
-        <v>-2.172336101531982</v>
+        <v>-1.561989665031433</v>
       </c>
       <c r="D184" t="n">
-        <v>-6.985420703887939</v>
+        <v>-0.9954763054847717</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4.003941059112549</v>
+        <v>1.68683910369873</v>
       </c>
       <c r="C185" t="n">
-        <v>-1.715018033981323</v>
+        <v>-1.560155749320984</v>
       </c>
       <c r="D185" t="n">
-        <v>-6.231778144836426</v>
+        <v>-1.068901538848877</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>3.140654325485229</v>
+        <v>1.950608372688293</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.4387171864509583</v>
+        <v>-1.911681890487671</v>
       </c>
       <c r="D186" t="n">
-        <v>-6.05145263671875</v>
+        <v>-1.428620100021362</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>3.803282737731934</v>
+        <v>2.102924108505249</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.8020734190940857</v>
+        <v>-1.903741717338562</v>
       </c>
       <c r="D187" t="n">
-        <v>-6.88657808303833</v>
+        <v>-1.446763873100281</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>3.750060558319092</v>
+        <v>2.004516839981079</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.9557313323020935</v>
+        <v>-1.768500924110413</v>
       </c>
       <c r="D188" t="n">
-        <v>-6.655947685241699</v>
+        <v>-1.33407986164093</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>3.67321252822876</v>
+        <v>1.96491527557373</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.9454818367958069</v>
+        <v>-1.760732769966125</v>
       </c>
       <c r="D189" t="n">
-        <v>-6.539440155029297</v>
+        <v>-1.314539790153503</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>3.047217607498169</v>
+        <v>1.65154242515564</v>
       </c>
       <c r="C190" t="n">
-        <v>-1.422898530960083</v>
+        <v>-1.050770401954651</v>
       </c>
       <c r="D190" t="n">
-        <v>-4.767468452453613</v>
+        <v>-1.033021092414856</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>2.300206661224365</v>
+        <v>1.74970555305481</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.1276119351387024</v>
+        <v>-1.772081971168518</v>
       </c>
       <c r="D191" t="n">
-        <v>-4.71101713180542</v>
+        <v>-1.446686863899231</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>3.760746002197266</v>
+        <v>1.785982728004456</v>
       </c>
       <c r="C192" t="n">
-        <v>-1.50020170211792</v>
+        <v>-1.418931007385254</v>
       </c>
       <c r="D192" t="n">
-        <v>-6.076919078826904</v>
+        <v>-1.076271533966064</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>3.729023694992065</v>
+        <v>1.940012216567993</v>
       </c>
       <c r="C193" t="n">
-        <v>-1.091427326202393</v>
+        <v>-1.691226124763489</v>
       </c>
       <c r="D193" t="n">
-        <v>-6.545615196228027</v>
+        <v>-1.292795300483704</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>2.282917737960815</v>
+        <v>1.970268726348877</v>
       </c>
       <c r="C194" t="n">
-        <v>0.2300365269184113</v>
+        <v>-2.531282663345337</v>
       </c>
       <c r="D194" t="n">
-        <v>-4.651439666748047</v>
+        <v>-1.90027129650116</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>3.967800617218018</v>
+        <v>1.83161735534668</v>
       </c>
       <c r="C195" t="n">
-        <v>-1.388155221939087</v>
+        <v>-1.734784483909607</v>
       </c>
       <c r="D195" t="n">
-        <v>-6.511587142944336</v>
+        <v>-1.166867136955261</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>3.377866983413696</v>
+        <v>1.848361849784851</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.8906882405281067</v>
+        <v>-1.875404477119446</v>
       </c>
       <c r="D196" t="n">
-        <v>-6.112858295440674</v>
+        <v>-1.227673411369324</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1.122108578681946</v>
+        <v>0.8923591375350952</v>
       </c>
       <c r="C197" t="n">
-        <v>0.4512929320335388</v>
+        <v>-1.072246074676514</v>
       </c>
       <c r="D197" t="n">
-        <v>-2.423455476760864</v>
+        <v>-1.079657435417175</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>3.708428859710693</v>
+        <v>1.714882373809814</v>
       </c>
       <c r="C198" t="n">
-        <v>-1.524808168411255</v>
+        <v>-1.339958071708679</v>
       </c>
       <c r="D198" t="n">
-        <v>-5.803544998168945</v>
+        <v>-1.037799119949341</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>3.653438806533813</v>
+        <v>1.906742453575134</v>
       </c>
       <c r="C199" t="n">
-        <v>-1.078752040863037</v>
+        <v>-1.830026984214783</v>
       </c>
       <c r="D199" t="n">
-        <v>-6.380487442016602</v>
+        <v>-1.249061703681946</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>2.340741634368896</v>
+        <v>1.86016583442688</v>
       </c>
       <c r="C200" t="n">
-        <v>0.1744883805513382</v>
+        <v>-2.451691150665283</v>
       </c>
       <c r="D200" t="n">
-        <v>-4.569260597229004</v>
+        <v>-1.797294855117798</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>3.441035270690918</v>
+        <v>1.93556547164917</v>
       </c>
       <c r="C201" t="n">
-        <v>-1.374897956848145</v>
+        <v>-1.348210096359253</v>
       </c>
       <c r="D201" t="n">
-        <v>-5.434584140777588</v>
+        <v>-1.256853938102722</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>3.282775163650513</v>
+        <v>2.024625301361084</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.4303539395332336</v>
+        <v>-2.038546085357666</v>
       </c>
       <c r="D202" t="n">
-        <v>-6.297510623931885</v>
+        <v>-1.490151286125183</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>3.841936349868774</v>
+        <v>2.044788837432861</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.9575491547584534</v>
+        <v>-1.797101497650146</v>
       </c>
       <c r="D203" t="n">
-        <v>-6.731736660003662</v>
+        <v>-1.37883448600769</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>3.079482078552246</v>
+        <v>1.874334573745728</v>
       </c>
       <c r="C204" t="n">
-        <v>-1.087195634841919</v>
+        <v>-1.408199667930603</v>
       </c>
       <c r="D204" t="n">
-        <v>-4.913909435272217</v>
+        <v>-1.266850233078003</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>4.112356662750244</v>
+        <v>1.942291975021362</v>
       </c>
       <c r="C205" t="n">
-        <v>-1.426790475845337</v>
+        <v>-1.70236337184906</v>
       </c>
       <c r="D205" t="n">
-        <v>-6.639785766601562</v>
+        <v>-1.21474826335907</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1.82703959941864</v>
+        <v>1.373013854026794</v>
       </c>
       <c r="C206" t="n">
-        <v>0.2372353225946426</v>
+        <v>-1.920440077781677</v>
       </c>
       <c r="D206" t="n">
-        <v>-3.360526561737061</v>
+        <v>-1.318417549133301</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>3.722785234451294</v>
+        <v>1.953877687454224</v>
       </c>
       <c r="C207" t="n">
-        <v>-1.018220663070679</v>
+        <v>-1.714545369148254</v>
       </c>
       <c r="D207" t="n">
-        <v>-6.42943000793457</v>
+        <v>-1.290344953536987</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>2.839619636535645</v>
+        <v>1.724222183227539</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.8508557677268982</v>
+        <v>-1.449859499931335</v>
       </c>
       <c r="D208" t="n">
-        <v>-4.943936347961426</v>
+        <v>-1.220013499259949</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1.28092086315155</v>
+        <v>1.053502082824707</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.09662079811096191</v>
+        <v>-0.8639713525772095</v>
       </c>
       <c r="D209" t="n">
-        <v>-2.489322185516357</v>
+        <v>-0.7717176675796509</v>
       </c>
     </row>
     <row r="210">
@@ -3361,13 +3361,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>3.875981330871582</v>
+        <v>2.100078582763672</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.8731842637062073</v>
+        <v>-1.88407027721405</v>
       </c>
       <c r="D210" t="n">
-        <v>-6.925447940826416</v>
+        <v>-1.423551678657532</v>
       </c>
     </row>
     <row r="211">
@@ -3375,13 +3375,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1.918571829795837</v>
+        <v>1.601919889450073</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.2777548432350159</v>
+        <v>-1.55610716342926</v>
       </c>
       <c r="D211" t="n">
-        <v>-3.863332986831665</v>
+        <v>-1.373369455337524</v>
       </c>
     </row>
     <row r="212">
@@ -3389,13 +3389,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>2.783227920532227</v>
+        <v>1.902303695678711</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.2708928287029266</v>
+        <v>-2.257588148117065</v>
       </c>
       <c r="D212" t="n">
-        <v>-5.695934772491455</v>
+        <v>-1.305941462516785</v>
       </c>
     </row>
     <row r="213">
@@ -3403,13 +3403,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>5.89091968536377</v>
+        <v>1.812076568603516</v>
       </c>
       <c r="C213" t="n">
-        <v>-2.760218858718872</v>
+        <v>-1.953689217567444</v>
       </c>
       <c r="D213" t="n">
-        <v>-7.766240119934082</v>
+        <v>-1.041906595230103</v>
       </c>
     </row>
     <row r="214">
@@ -3417,13 +3417,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.407399594783783</v>
+        <v>0.7353993654251099</v>
       </c>
       <c r="C214" t="n">
-        <v>0.2109992057085037</v>
+        <v>-1.3965083360672</v>
       </c>
       <c r="D214" t="n">
-        <v>-1.760399341583252</v>
+        <v>-0.7175654768943787</v>
       </c>
     </row>
     <row r="215">
@@ -3431,13 +3431,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>2.819715976715088</v>
+        <v>1.544015526771545</v>
       </c>
       <c r="C215" t="n">
-        <v>-1.365339994430542</v>
+        <v>-0.9602140188217163</v>
       </c>
       <c r="D215" t="n">
-        <v>-4.396317481994629</v>
+        <v>-0.9985864758491516</v>
       </c>
     </row>
     <row r="216">
@@ -3445,13 +3445,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>5.523393154144287</v>
+        <v>1.494722366333008</v>
       </c>
       <c r="C216" t="n">
-        <v>-3.312710523605347</v>
+        <v>-1.154298901557922</v>
       </c>
       <c r="D216" t="n">
-        <v>-6.656266212463379</v>
+        <v>-0.6513885259628296</v>
       </c>
     </row>
     <row r="217">
@@ -3459,13 +3459,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0.2102113962173462</v>
+        <v>0.1482687294483185</v>
       </c>
       <c r="C217" t="n">
-        <v>0.4293698966503143</v>
+        <v>-0.1464723646640778</v>
       </c>
       <c r="D217" t="n">
-        <v>-1.353804230690002</v>
+        <v>-0.7493120431900024</v>
       </c>
     </row>
     <row r="218">
@@ -3473,13 +3473,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1.974396586418152</v>
+        <v>1.6257244348526</v>
       </c>
       <c r="C218" t="n">
-        <v>0.3879698216915131</v>
+        <v>-1.962378144264221</v>
       </c>
       <c r="D218" t="n">
-        <v>-4.388667583465576</v>
+        <v>-1.256317257881165</v>
       </c>
     </row>
     <row r="219">
@@ -3487,13 +3487,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>2.021525382995605</v>
+        <v>1.556542158126831</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.03544789552688599</v>
+        <v>-1.823951721191406</v>
       </c>
       <c r="D219" t="n">
-        <v>-4.08155632019043</v>
+        <v>-1.423641204833984</v>
       </c>
     </row>
     <row r="220">
@@ -3501,13 +3501,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>3.262864589691162</v>
+        <v>2.015958547592163</v>
       </c>
       <c r="C220" t="n">
-        <v>-0.4211645722389221</v>
+        <v>-2.009486675262451</v>
       </c>
       <c r="D220" t="n">
-        <v>-6.286247253417969</v>
+        <v>-1.487432360649109</v>
       </c>
     </row>
     <row r="221">
@@ -3515,13 +3515,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>4.218246936798096</v>
+        <v>1.634865880012512</v>
       </c>
       <c r="C221" t="n">
-        <v>-1.714022874832153</v>
+        <v>-1.627395391464233</v>
       </c>
       <c r="D221" t="n">
-        <v>-6.170967578887939</v>
+        <v>-1.022806286811829</v>
       </c>
     </row>
     <row r="222">
@@ -3529,13 +3529,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>2.838479518890381</v>
+        <v>1.681976318359375</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.7975481152534485</v>
+        <v>-1.383493781089783</v>
       </c>
       <c r="D222" t="n">
-        <v>-5.197263717651367</v>
+        <v>-1.155628085136414</v>
       </c>
     </row>
     <row r="223">
@@ -3543,13 +3543,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>4.194201946258545</v>
+        <v>1.853587985038757</v>
       </c>
       <c r="C223" t="n">
-        <v>-1.616541862487793</v>
+        <v>-1.589957118034363</v>
       </c>
       <c r="D223" t="n">
-        <v>-6.476758480072021</v>
+        <v>-1.128613352775574</v>
       </c>
     </row>
     <row r="224">
@@ -3557,13 +3557,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>2.234097957611084</v>
+        <v>1.441105961799622</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.668765127658844</v>
+        <v>-1.16967761516571</v>
       </c>
       <c r="D224" t="n">
-        <v>-4.101086616516113</v>
+        <v>-1.022071599960327</v>
       </c>
     </row>
     <row r="225">
@@ -3571,13 +3571,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>3.569377422332764</v>
+        <v>1.943154215812683</v>
       </c>
       <c r="C225" t="n">
-        <v>-1.024207830429077</v>
+        <v>-1.654780745506287</v>
       </c>
       <c r="D225" t="n">
-        <v>-6.042602062225342</v>
+        <v>-1.306076884269714</v>
       </c>
     </row>
     <row r="226">
@@ -3585,13 +3585,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>3.33429479598999</v>
+        <v>2.011756896972656</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.5880190134048462</v>
+        <v>-1.976393818855286</v>
       </c>
       <c r="D226" t="n">
-        <v>-6.372222900390625</v>
+        <v>-1.419203639030457</v>
       </c>
     </row>
     <row r="227">
@@ -3599,13 +3599,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>3.964990139007568</v>
+        <v>1.912252187728882</v>
       </c>
       <c r="C227" t="n">
-        <v>-1.432486772537231</v>
+        <v>-1.617127060890198</v>
       </c>
       <c r="D227" t="n">
-        <v>-6.577016830444336</v>
+        <v>-1.172159790992737</v>
       </c>
     </row>
     <row r="228">
@@ -3613,13 +3613,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>2.170599699020386</v>
+        <v>1.768343210220337</v>
       </c>
       <c r="C228" t="n">
-        <v>0.3199331164360046</v>
+        <v>-2.437233924865723</v>
       </c>
       <c r="D228" t="n">
-        <v>-4.342721462249756</v>
+        <v>-1.678728103637695</v>
       </c>
     </row>
     <row r="229">
@@ -3627,13 +3627,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1.640354990959167</v>
+        <v>1.541368126869202</v>
       </c>
       <c r="C229" t="n">
-        <v>0.5565651655197144</v>
+        <v>-2.089447736740112</v>
       </c>
       <c r="D229" t="n">
-        <v>-3.765407800674438</v>
+        <v>-1.255153298377991</v>
       </c>
     </row>
     <row r="230">
@@ -3641,13 +3641,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>3.70392894744873</v>
+        <v>1.626044034957886</v>
       </c>
       <c r="C230" t="n">
-        <v>-1.402773380279541</v>
+        <v>-1.500309586524963</v>
       </c>
       <c r="D230" t="n">
-        <v>-5.840195655822754</v>
+        <v>-1.039376020431519</v>
       </c>
     </row>
     <row r="231">
@@ -3655,13 +3655,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>2.468868494033813</v>
+        <v>1.286155223846436</v>
       </c>
       <c r="C231" t="n">
-        <v>-1.113006114959717</v>
+        <v>-0.8988692760467529</v>
       </c>
       <c r="D231" t="n">
-        <v>-3.75667929649353</v>
+        <v>-0.9600512385368347</v>
       </c>
     </row>
     <row r="232">
@@ -3669,13 +3669,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>3.632143497467041</v>
+        <v>1.687634706497192</v>
       </c>
       <c r="C232" t="n">
-        <v>-2.017826795578003</v>
+        <v>-0.8904981017112732</v>
       </c>
       <c r="D232" t="n">
-        <v>-5.134764671325684</v>
+        <v>-0.871761679649353</v>
       </c>
     </row>
     <row r="233">
@@ -3683,13 +3683,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1.838700771331787</v>
+        <v>1.466960072517395</v>
       </c>
       <c r="C233" t="n">
-        <v>0.1262029409408569</v>
+        <v>-1.720889210700989</v>
       </c>
       <c r="D233" t="n">
-        <v>-3.74202823638916</v>
+        <v>-1.271082162857056</v>
       </c>
     </row>
     <row r="234">
@@ -3697,13 +3697,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>3.2304847240448</v>
+        <v>1.863359451293945</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.7237690091133118</v>
+        <v>-1.809154748916626</v>
       </c>
       <c r="D234" t="n">
-        <v>-5.974080085754395</v>
+        <v>-1.239804863929749</v>
       </c>
     </row>
     <row r="235">
@@ -3711,13 +3711,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>5.431955814361572</v>
+        <v>1.406477808952332</v>
       </c>
       <c r="C235" t="n">
-        <v>-2.756564140319824</v>
+        <v>-1.621786713600159</v>
       </c>
       <c r="D235" t="n">
-        <v>-6.58659029006958</v>
+        <v>-0.8446457982063293</v>
       </c>
     </row>
     <row r="236">
@@ -3725,13 +3725,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>4.804715156555176</v>
+        <v>1.686339855194092</v>
       </c>
       <c r="C236" t="n">
-        <v>-2.387229442596436</v>
+        <v>-1.389041781425476</v>
       </c>
       <c r="D236" t="n">
-        <v>-6.512908935546875</v>
+        <v>-0.8707085847854614</v>
       </c>
     </row>
     <row r="237">
@@ -3739,13 +3739,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>3.420882225036621</v>
+        <v>1.962086200714111</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.7454569935798645</v>
+        <v>-1.750970840454102</v>
       </c>
       <c r="D237" t="n">
-        <v>-6.123438835144043</v>
+        <v>-1.360994219779968</v>
       </c>
     </row>
     <row r="238">
@@ -3753,13 +3753,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>4.195214748382568</v>
+        <v>1.634462237358093</v>
       </c>
       <c r="C238" t="n">
-        <v>-2.227440595626831</v>
+        <v>-0.9906297922134399</v>
       </c>
       <c r="D238" t="n">
-        <v>-5.536092281341553</v>
+        <v>-0.8040885329246521</v>
       </c>
     </row>
     <row r="239">
@@ -3767,13 +3767,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>3.852212905883789</v>
+        <v>2.023415803909302</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.99039226770401</v>
+        <v>-1.795232176780701</v>
       </c>
       <c r="D239" t="n">
-        <v>-6.793890953063965</v>
+        <v>-1.326416850090027</v>
       </c>
     </row>
     <row r="240">
@@ -3781,13 +3781,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1.614179491996765</v>
+        <v>1.410825610160828</v>
       </c>
       <c r="C240" t="n">
-        <v>0.6047860383987427</v>
+        <v>-2.047861337661743</v>
       </c>
       <c r="D240" t="n">
-        <v>-3.609318256378174</v>
+        <v>-1.252653956413269</v>
       </c>
     </row>
     <row r="241">
@@ -3795,13 +3795,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>9.038830757141113</v>
+        <v>1.387555599212646</v>
       </c>
       <c r="C241" t="n">
-        <v>-6.081006526947021</v>
+        <v>-1.455020546913147</v>
       </c>
       <c r="D241" t="n">
-        <v>-9.93877124786377</v>
+        <v>-0.5944414138793945</v>
       </c>
     </row>
     <row r="242">
@@ -3809,13 +3809,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>4.261081695556641</v>
+        <v>1.754418611526489</v>
       </c>
       <c r="C242" t="n">
-        <v>-1.828271389007568</v>
+        <v>-1.477280855178833</v>
       </c>
       <c r="D242" t="n">
-        <v>-6.338330268859863</v>
+        <v>-1.027425408363342</v>
       </c>
     </row>
     <row r="243">
@@ -3823,13 +3823,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>2.943822860717773</v>
+        <v>1.703199028968811</v>
       </c>
       <c r="C243" t="n">
-        <v>-0.8318548798561096</v>
+        <v>-1.425553441047668</v>
       </c>
       <c r="D243" t="n">
-        <v>-5.337127685546875</v>
+        <v>-1.1512850522995</v>
       </c>
     </row>
     <row r="244">
@@ -3837,13 +3837,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>2.74044132232666</v>
+        <v>1.854612469673157</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.1516056656837463</v>
+        <v>-1.890881657600403</v>
       </c>
       <c r="D244" t="n">
-        <v>-5.50343132019043</v>
+        <v>-1.399949073791504</v>
       </c>
     </row>
     <row r="245">
@@ -3851,13 +3851,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>3.86082124710083</v>
+        <v>1.953384876251221</v>
       </c>
       <c r="C245" t="n">
-        <v>-1.219731330871582</v>
+        <v>-1.690267205238342</v>
       </c>
       <c r="D245" t="n">
-        <v>-6.51863956451416</v>
+        <v>-1.240495324134827</v>
       </c>
     </row>
     <row r="246">
@@ -3865,13 +3865,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0.3164534866809845</v>
+        <v>0.5530470013618469</v>
       </c>
       <c r="C246" t="n">
-        <v>0.3103965222835541</v>
+        <v>-1.068127512931824</v>
       </c>
       <c r="D246" t="n">
-        <v>-1.588794469833374</v>
+        <v>-0.7772869467735291</v>
       </c>
     </row>
     <row r="247">
@@ -3879,13 +3879,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>4.28749942779541</v>
+        <v>1.871063351631165</v>
       </c>
       <c r="C247" t="n">
-        <v>-1.856648445129395</v>
+        <v>-1.932960867881775</v>
       </c>
       <c r="D247" t="n">
-        <v>-6.396984100341797</v>
+        <v>-1.075821042060852</v>
       </c>
     </row>
     <row r="248">
@@ -3893,13 +3893,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>3.453797817230225</v>
+        <v>2.09305739402771</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.499806821346283</v>
+        <v>-1.981892704963684</v>
       </c>
       <c r="D248" t="n">
-        <v>-6.600393772125244</v>
+        <v>-1.514030456542969</v>
       </c>
     </row>
   </sheetData>
